--- a/Backtest_Summary single indicator_hold5.xlsx
+++ b/Backtest_Summary single indicator_hold5.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20829BA1-520A-43D8-9AEC-FA6D53D92A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Setting" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="290">
   <si>
     <t>SDate</t>
   </si>
@@ -890,12 +896,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -903,8 +909,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -950,15 +963,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1000,7 +1021,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1032,9 +1053,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1066,6 +1105,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1241,14 +1298,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CN43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:92">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,267 +1336,270 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
         <v>219</v>
@@ -1546,96 +1608,99 @@
         <v>220</v>
       </c>
       <c r="G2">
-        <v>427</v>
+        <v>962</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.1281260435259349</v>
-      </c>
-      <c r="J2">
-        <v>0.5011709601873536</v>
+        <v>-1.6662128919796831E-3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>285</v>
       </c>
       <c r="K2">
-        <v>0.1440689882961032</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="L2">
-        <v>3.491985542282683</v>
+        <v>3.4293328685810969</v>
       </c>
       <c r="M2">
-        <v>1.431994300746005</v>
+        <v>19.368400269810049</v>
       </c>
       <c r="N2">
-        <v>0.07855973813420622</v>
+        <v>467980566673.01501</v>
       </c>
       <c r="O2">
-        <v>4888</v>
+        <v>3.0034924330617E-2</v>
       </c>
       <c r="P2">
-        <v>4876</v>
+        <v>4295</v>
       </c>
       <c r="Q2">
-        <v>24548</v>
+        <v>4283</v>
       </c>
       <c r="R2">
-        <v>0.5170298721415948</v>
+        <v>25115</v>
       </c>
       <c r="S2">
-        <v>0.6130434559375748</v>
+        <v>5.1251123109361334</v>
       </c>
       <c r="T2">
-        <v>0.6683701882015343</v>
+        <v>5.2376249082650066</v>
       </c>
       <c r="U2">
-        <v>0.6883751007031165</v>
+        <v>5.1963871043883936</v>
       </c>
       <c r="V2">
-        <v>0.5068780123083491</v>
+        <v>4.8488638060410372</v>
       </c>
       <c r="W2">
-        <v>0.23252192623094</v>
+        <v>4.4266604185623004</v>
       </c>
       <c r="X2">
-        <v>-0.4644809239796201</v>
+        <v>4.0211139826469484</v>
       </c>
       <c r="Y2">
-        <v>-0.5132812135120773</v>
+        <v>0.77907092780695963</v>
       </c>
       <c r="Z2">
-        <v>-0.4691929228279277</v>
+        <v>0.78179185394957496</v>
       </c>
       <c r="AA2">
-        <v>-0.4463103378757901</v>
+        <v>1.20164181143785</v>
       </c>
       <c r="AB2">
-        <v>-0.3124372784426797</v>
+        <v>1.7355979911762409</v>
       </c>
       <c r="AC2">
-        <v>0.005150645497965948</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
+        <v>2.037650137302784</v>
+      </c>
+      <c r="AD2">
+        <v>2.3445309043600142</v>
+      </c>
+      <c r="CJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:92">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
         <v>219</v>
@@ -1644,96 +1709,99 @@
         <v>220</v>
       </c>
       <c r="G3">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.02765905482572545</v>
-      </c>
-      <c r="J3">
-        <v>0.6392857142857142</v>
+        <v>8.59500361590535E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>281</v>
       </c>
       <c r="K3">
-        <v>1.673751049579338</v>
+        <v>0.68315301391035543</v>
       </c>
       <c r="L3">
-        <v>7.160053530306216</v>
+        <v>2.506185058231424</v>
       </c>
       <c r="M3">
-        <v>2756.376852549513</v>
+        <v>6.7830168185232234</v>
       </c>
       <c r="N3">
-        <v>0.04320540671011344</v>
+        <v>2209670.4231160982</v>
       </c>
       <c r="O3">
-        <v>4143</v>
+        <v>3.0124575311438279E-2</v>
       </c>
       <c r="P3">
-        <v>4131</v>
+        <v>4415</v>
       </c>
       <c r="Q3">
-        <v>25289</v>
+        <v>4403</v>
       </c>
       <c r="R3">
-        <v>3.871704951270294</v>
+        <v>25000</v>
       </c>
       <c r="S3">
-        <v>4.054726133531558</v>
+        <v>3.661085328763396</v>
       </c>
       <c r="T3">
-        <v>4.114001971857572</v>
+        <v>3.744696921276824</v>
       </c>
       <c r="U3">
-        <v>3.830327000518502</v>
+        <v>3.7397316926591282</v>
       </c>
       <c r="V3">
-        <v>3.082977250863359</v>
+        <v>3.6091381536239631</v>
       </c>
       <c r="W3">
-        <v>2.612867822380553</v>
+        <v>3.2843551683554182</v>
       </c>
       <c r="X3">
-        <v>-2.036923279350071</v>
+        <v>2.9061210851664012</v>
       </c>
       <c r="Y3">
-        <v>-1.586390446354386</v>
+        <v>0.57537124689196162</v>
       </c>
       <c r="Z3">
-        <v>-1.054326461768657</v>
+        <v>0.66488926685716976</v>
       </c>
       <c r="AA3">
-        <v>-0.4917676141724794</v>
+        <v>0.96189027724773224</v>
       </c>
       <c r="AB3">
-        <v>0.04013598661023875</v>
+        <v>1.257816237759912</v>
       </c>
       <c r="AC3">
-        <v>0.09944812420031438</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
+        <v>1.465120949782823</v>
+      </c>
+      <c r="AD3">
+        <v>1.7211664908730711</v>
+      </c>
+      <c r="CD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>219</v>
@@ -1742,96 +1810,99 @@
         <v>220</v>
       </c>
       <c r="G4">
-        <v>645</v>
+        <v>560</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.111799321263773</v>
-      </c>
-      <c r="J4">
-        <v>0.5627906976744186</v>
+        <v>2.7659054825725449E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>248</v>
       </c>
       <c r="K4">
-        <v>0.3827241789108289</v>
+        <v>0.63928571428571423</v>
       </c>
       <c r="L4">
-        <v>7.057221324062267</v>
+        <v>1.673751049579338</v>
       </c>
       <c r="M4">
-        <v>2.278130078432634</v>
+        <v>7.1600535303062163</v>
       </c>
       <c r="N4">
-        <v>0.03271537622682661</v>
+        <v>2756.3768525495129</v>
       </c>
       <c r="O4">
-        <v>4585</v>
+        <v>4.3205406710113442E-2</v>
       </c>
       <c r="P4">
-        <v>4573</v>
+        <v>4143</v>
       </c>
       <c r="Q4">
-        <v>24838</v>
+        <v>4131</v>
       </c>
       <c r="R4">
-        <v>2.082228367005557</v>
+        <v>25289</v>
       </c>
       <c r="S4">
-        <v>2.534495546967426</v>
+        <v>3.8717049512702939</v>
       </c>
       <c r="T4">
-        <v>2.52125252959616</v>
+        <v>4.0547261335315579</v>
       </c>
       <c r="U4">
-        <v>2.238605670265666</v>
+        <v>4.1140019718575722</v>
       </c>
       <c r="V4">
-        <v>1.62436328798062</v>
+        <v>3.8303270005185022</v>
       </c>
       <c r="W4">
-        <v>0.939976217734885</v>
+        <v>3.0829772508633591</v>
       </c>
       <c r="X4">
-        <v>-2.53804560154719</v>
+        <v>2.612867822380553</v>
       </c>
       <c r="Y4">
-        <v>-2.757429561438434</v>
+        <v>-2.0369232793500709</v>
       </c>
       <c r="Z4">
-        <v>-2.27831807573323</v>
+        <v>-1.5863904463543861</v>
       </c>
       <c r="AA4">
-        <v>-1.757821385354124</v>
+        <v>-1.054326461768657</v>
       </c>
       <c r="AB4">
-        <v>-1.302024251598106</v>
+        <v>-0.49176761417247938</v>
       </c>
       <c r="AC4">
-        <v>-0.648936838503526</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
+        <v>4.0135986610238747E-2</v>
+      </c>
+      <c r="AD4">
+        <v>9.9448124200314375E-2</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
         <v>219</v>
@@ -1840,96 +1911,99 @@
         <v>220</v>
       </c>
       <c r="G5">
-        <v>469</v>
+        <v>834</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0.08037626796806209</v>
-      </c>
-      <c r="J5">
-        <v>0.5394456289978679</v>
+        <v>-4.4087203535674389E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>283</v>
       </c>
       <c r="K5">
-        <v>0.5757331806965967</v>
+        <v>0.57913669064748197</v>
       </c>
       <c r="L5">
-        <v>5.129254590857293</v>
+        <v>0.99662778637841498</v>
       </c>
       <c r="M5">
-        <v>8.255244362508417</v>
+        <v>6.2474296148579684</v>
       </c>
       <c r="N5">
-        <v>0.06518580029063732</v>
+        <v>789.82719173896953</v>
       </c>
       <c r="O5">
-        <v>4817</v>
+        <v>2.7044569450454348E-2</v>
       </c>
       <c r="P5">
-        <v>4805</v>
+        <v>4622</v>
       </c>
       <c r="Q5">
-        <v>24614</v>
+        <v>4610</v>
       </c>
       <c r="R5">
-        <v>1.692295531825778</v>
+        <v>24794</v>
       </c>
       <c r="S5">
-        <v>1.764846802593326</v>
+        <v>2.4456305643526659</v>
       </c>
       <c r="T5">
-        <v>1.758785347111569</v>
+        <v>2.8514582383992728</v>
       </c>
       <c r="U5">
-        <v>1.72785949335843</v>
+        <v>2.8233521973287838</v>
       </c>
       <c r="V5">
-        <v>1.483406511425348</v>
+        <v>2.8809405668911778</v>
       </c>
       <c r="W5">
-        <v>1.180786764627754</v>
+        <v>2.1696659004910801</v>
       </c>
       <c r="X5">
-        <v>-1.283900029561484</v>
+        <v>1.838113740778357</v>
       </c>
       <c r="Y5">
-        <v>-1.15509118668027</v>
+        <v>-1.1563575411228719</v>
       </c>
       <c r="Z5">
-        <v>-0.8447592604191902</v>
+        <v>-1.379540775685882</v>
       </c>
       <c r="AA5">
-        <v>-0.6715965657489452</v>
+        <v>-0.98850347678258277</v>
       </c>
       <c r="AB5">
-        <v>-0.540871774198429</v>
+        <v>-0.75906856871519723</v>
       </c>
       <c r="AC5">
-        <v>-0.4367311675222204</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
+        <v>-0.2309813108147323</v>
+      </c>
+      <c r="AD5">
+        <v>-0.17686332278624239</v>
+      </c>
+      <c r="CG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:92">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
         <v>219</v>
@@ -1938,85 +2012,88 @@
         <v>220</v>
       </c>
       <c r="G6">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0.02963883343417421</v>
-      </c>
-      <c r="J6">
-        <v>0.5433526011560693</v>
+        <v>7.685422081739085E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>255</v>
       </c>
       <c r="K6">
-        <v>0.5927144448916254</v>
+        <v>0.56299212598425197</v>
       </c>
       <c r="L6">
-        <v>8.510608902437918</v>
+        <v>1.188309512176511</v>
       </c>
       <c r="M6">
-        <v>5.268096193566526</v>
+        <v>10.29086808800268</v>
       </c>
       <c r="N6">
-        <v>0.03740157480314961</v>
+        <v>391.44175099019162</v>
       </c>
       <c r="O6">
-        <v>4064</v>
+        <v>4.0458372310570617E-2</v>
       </c>
       <c r="P6">
-        <v>4052</v>
+        <v>4276</v>
       </c>
       <c r="Q6">
-        <v>25356</v>
+        <v>4264</v>
       </c>
       <c r="R6">
-        <v>2.769288590906777</v>
+        <v>25145</v>
       </c>
       <c r="S6">
-        <v>2.932029562033999</v>
+        <v>3.277936201583973</v>
       </c>
       <c r="T6">
-        <v>2.950616042177142</v>
+        <v>3.6231059855758199</v>
       </c>
       <c r="U6">
-        <v>3.011001267341165</v>
+        <v>3.4827547368913518</v>
       </c>
       <c r="V6">
-        <v>2.445075077747571</v>
+        <v>3.317815329553897</v>
       </c>
       <c r="W6">
-        <v>1.385722242994538</v>
+        <v>2.948137767301962</v>
       </c>
       <c r="X6">
-        <v>-2.62570164168585</v>
+        <v>2.081253497690768</v>
       </c>
       <c r="Y6">
-        <v>-2.724231292063485</v>
+        <v>-2.3913694015889431</v>
       </c>
       <c r="Z6">
-        <v>-2.323538944474877</v>
+        <v>-2.6483508771570961</v>
       </c>
       <c r="AA6">
-        <v>-2.178719407080763</v>
+        <v>-2.0690684295332651</v>
       </c>
       <c r="AB6">
-        <v>-1.82121149062365</v>
+        <v>-1.5112998503670769</v>
       </c>
       <c r="AC6">
-        <v>-0.8468647819624054</v>
-      </c>
-      <c r="AJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
+        <v>-1.2810678035834919</v>
+      </c>
+      <c r="AD6">
+        <v>-0.66968158859250071</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:92">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2042,90 +2119,93 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0.08948885415108487</v>
-      </c>
-      <c r="J7">
-        <v>0.5647969052224371</v>
+        <v>8.9488854151084873E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>252</v>
       </c>
       <c r="K7">
-        <v>0.9799657913487004</v>
+        <v>0.56479690522243708</v>
       </c>
       <c r="L7">
-        <v>6.280806435483116</v>
+        <v>0.97996579134870043</v>
       </c>
       <c r="M7">
-        <v>58.60358504114791</v>
+        <v>6.2808064354831163</v>
       </c>
       <c r="N7">
-        <v>0.0412262156448203</v>
+        <v>58.603585041147909</v>
       </c>
       <c r="O7">
+        <v>4.1226215644820298E-2</v>
+      </c>
+      <c r="P7">
         <v>4730</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>4718</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>24702</v>
       </c>
-      <c r="R7">
-        <v>2.669936532881095</v>
-      </c>
       <c r="S7">
-        <v>2.983912038857922</v>
+        <v>2.6699365328810951</v>
       </c>
       <c r="T7">
-        <v>3.21445880725702</v>
+        <v>2.9839120388579219</v>
       </c>
       <c r="U7">
+        <v>3.2144588072570199</v>
+      </c>
+      <c r="V7">
         <v>2.866547528793292</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2.236211359021604</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1.81604589806284</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-1.601943328171149</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-1.756798294805842</v>
       </c>
-      <c r="Z7">
-        <v>-1.587361964545628</v>
-      </c>
       <c r="AA7">
-        <v>-0.9044399345607844</v>
+        <v>-1.5873619645456281</v>
       </c>
       <c r="AB7">
-        <v>-0.4181382391061018</v>
+        <v>-0.90443993456078442</v>
       </c>
       <c r="AC7">
-        <v>-0.3063970777422734</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK7">
+        <v>-0.41813823910610182</v>
+      </c>
+      <c r="AD7">
+        <v>-0.30639707774227343</v>
+      </c>
+      <c r="AK7" t="b">
         <v>1</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
         <v>219</v>
@@ -2134,96 +2214,99 @@
         <v>220</v>
       </c>
       <c r="G8">
-        <v>442</v>
+        <v>708</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.07925399004626586</v>
-      </c>
-      <c r="J8">
-        <v>0.5610859728506787</v>
+        <v>8.876577197523694E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>276</v>
       </c>
       <c r="K8">
-        <v>0.4029385232433599</v>
+        <v>0.5268361581920904</v>
       </c>
       <c r="L8">
-        <v>4.490002075336252</v>
+        <v>0.77026207013632919</v>
       </c>
       <c r="M8">
-        <v>3.757195183102888</v>
+        <v>6.842054351183303</v>
       </c>
       <c r="N8">
-        <v>0.04969722280225517</v>
+        <v>46.860658692204993</v>
       </c>
       <c r="O8">
-        <v>4789</v>
+        <v>3.5936113575865132E-2</v>
       </c>
       <c r="P8">
-        <v>4777</v>
+        <v>4508</v>
       </c>
       <c r="Q8">
-        <v>24647</v>
+        <v>4496</v>
       </c>
       <c r="R8">
-        <v>1.630017319581269</v>
+        <v>24905</v>
       </c>
       <c r="S8">
-        <v>1.601723141417977</v>
+        <v>2.6806778942324949</v>
       </c>
       <c r="T8">
-        <v>1.658253924218441</v>
+        <v>2.7073409166656899</v>
       </c>
       <c r="U8">
-        <v>1.622958085049179</v>
+        <v>2.647306490381899</v>
       </c>
       <c r="V8">
-        <v>1.311544775487145</v>
+        <v>2.5690403035846252</v>
       </c>
       <c r="W8">
-        <v>1.026492944444644</v>
+        <v>2.295825141624575</v>
       </c>
       <c r="X8">
-        <v>-1.572581475918508</v>
+        <v>1.5785411118046799</v>
       </c>
       <c r="Y8">
-        <v>-1.241080427772616</v>
+        <v>-2.257619978615963</v>
       </c>
       <c r="Z8">
-        <v>-1.055920286979868</v>
+        <v>-2.1574493899104601</v>
       </c>
       <c r="AA8">
-        <v>-0.9034554079593217</v>
+        <v>-1.6532186289858219</v>
       </c>
       <c r="AB8">
-        <v>-0.7024894179498076</v>
+        <v>-1.174993745676685</v>
       </c>
       <c r="AC8">
-        <v>-0.66114476723763</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
+        <v>-0.91630746492417059</v>
+      </c>
+      <c r="AD8">
+        <v>-0.63525116100140422</v>
+      </c>
+      <c r="BU8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:92">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
         <v>219</v>
@@ -2232,96 +2315,99 @@
         <v>220</v>
       </c>
       <c r="G9">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0.0640171544005526</v>
-      </c>
-      <c r="J9">
-        <v>0.5579598145285936</v>
+        <v>7.1205950554166897E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>270</v>
       </c>
       <c r="K9">
-        <v>0.7319524824118572</v>
+        <v>0.57466063348416285</v>
       </c>
       <c r="L9">
-        <v>7.016838051413037</v>
+        <v>0.65938365274005128</v>
       </c>
       <c r="M9">
-        <v>23.20640901416878</v>
+        <v>5.3039622832608284</v>
       </c>
       <c r="N9">
-        <v>0.01660113586719091</v>
+        <v>30.224278132180871</v>
       </c>
       <c r="O9">
-        <v>4578</v>
+        <v>0.205026455026455</v>
       </c>
       <c r="P9">
-        <v>4566</v>
+        <v>4536</v>
       </c>
       <c r="Q9">
-        <v>24847</v>
+        <v>4524</v>
       </c>
       <c r="R9">
-        <v>2.613884500654931</v>
+        <v>24889</v>
       </c>
       <c r="S9">
-        <v>2.804968129725507</v>
+        <v>2.0195432846245098</v>
       </c>
       <c r="T9">
-        <v>2.851670121791791</v>
+        <v>2.1733008745277789</v>
       </c>
       <c r="U9">
-        <v>3.013074943785544</v>
+        <v>2.1691977644173841</v>
       </c>
       <c r="V9">
-        <v>2.178905554217016</v>
+        <v>2.1550273706091998</v>
       </c>
       <c r="W9">
-        <v>1.554201642318876</v>
+        <v>1.801867530488209</v>
       </c>
       <c r="X9">
-        <v>-2.299196739905538</v>
+        <v>1.2673208124177651</v>
       </c>
       <c r="Y9">
-        <v>-2.165184624170507</v>
+        <v>-1.6386263142758659</v>
       </c>
       <c r="Z9">
-        <v>-1.911885897974225</v>
+        <v>-1.618016732723689</v>
       </c>
       <c r="AA9">
-        <v>-1.908022356150277</v>
+        <v>-1.3950491548468349</v>
       </c>
       <c r="AB9">
-        <v>-1.21212959858132</v>
+        <v>-1.1507750191107611</v>
       </c>
       <c r="AC9">
-        <v>-0.7063792975672101</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
-      <c r="AO9">
+        <v>-0.77846211683089206</v>
+      </c>
+      <c r="AD9">
+        <v>-0.4394317721710792</v>
+      </c>
+      <c r="BL9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM9">
+        <v>1</v>
+      </c>
+      <c r="BN9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
         <v>219</v>
@@ -2330,96 +2416,99 @@
         <v>220</v>
       </c>
       <c r="G10">
-        <v>762</v>
+        <v>1666</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.07685422081739085</v>
-      </c>
-      <c r="J10">
-        <v>0.562992125984252</v>
+        <v>1.5167972673899429E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>278</v>
       </c>
       <c r="K10">
-        <v>1.188309512176511</v>
+        <v>0.53721488595438172</v>
       </c>
       <c r="L10">
-        <v>10.29086808800268</v>
+        <v>0.43333967910125287</v>
       </c>
       <c r="M10">
-        <v>391.4417509901916</v>
+        <v>6.8689522219431698</v>
       </c>
       <c r="N10">
-        <v>0.04045837231057062</v>
+        <v>28.32235698812168</v>
       </c>
       <c r="O10">
-        <v>4276</v>
+        <v>2.6962899050905959E-2</v>
       </c>
       <c r="P10">
-        <v>4264</v>
+        <v>4636</v>
       </c>
       <c r="Q10">
-        <v>25145</v>
+        <v>4624</v>
       </c>
       <c r="R10">
-        <v>3.277936201583973</v>
+        <v>24800</v>
       </c>
       <c r="S10">
-        <v>3.62310598557582</v>
+        <v>2.3015144452632841</v>
       </c>
       <c r="T10">
-        <v>3.482754736891352</v>
+        <v>2.597476912939638</v>
       </c>
       <c r="U10">
-        <v>3.317815329553897</v>
+        <v>2.6272403097825312</v>
       </c>
       <c r="V10">
-        <v>2.948137767301962</v>
+        <v>2.290283274619795</v>
       </c>
       <c r="W10">
-        <v>2.081253497690768</v>
+        <v>1.5338665837013039</v>
       </c>
       <c r="X10">
-        <v>-2.391369401588943</v>
+        <v>1.0888673119799119</v>
       </c>
       <c r="Y10">
-        <v>-2.648350877157096</v>
+        <v>-2.549082376725845</v>
       </c>
       <c r="Z10">
-        <v>-2.069068429533265</v>
+        <v>-2.7309403527055678</v>
       </c>
       <c r="AA10">
-        <v>-1.511299850367077</v>
+        <v>-2.3749050701073009</v>
       </c>
       <c r="AB10">
-        <v>-1.281067803583492</v>
+        <v>-1.8304269437450329</v>
       </c>
       <c r="AC10">
-        <v>-0.6696815885925007</v>
-      </c>
-      <c r="AP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
+        <v>-1.0970226022101011</v>
+      </c>
+      <c r="AD10">
+        <v>-0.80379776784338652</v>
+      </c>
+      <c r="BX10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
         <v>219</v>
@@ -2428,96 +2517,99 @@
         <v>220</v>
       </c>
       <c r="G11">
-        <v>431</v>
+        <v>686</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>-0.03339039772556006</v>
-      </c>
-      <c r="J11">
-        <v>0.5336426914153132</v>
+        <v>-1.073109775061945E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>274</v>
       </c>
       <c r="K11">
-        <v>0.4662485092169546</v>
+        <v>0.54956268221574345</v>
       </c>
       <c r="L11">
-        <v>4.967409725792988</v>
+        <v>0.66737392653045058</v>
       </c>
       <c r="M11">
-        <v>4.463208819585059</v>
+        <v>6.3252011116826168</v>
       </c>
       <c r="N11">
-        <v>0.09332496338146055</v>
+        <v>24.300401336241219</v>
       </c>
       <c r="O11">
-        <v>4779</v>
+        <v>3.1256783156066857E-2</v>
       </c>
       <c r="P11">
-        <v>4767</v>
+        <v>4607</v>
       </c>
       <c r="Q11">
-        <v>24657</v>
+        <v>4595</v>
       </c>
       <c r="R11">
-        <v>1.731473527409076</v>
+        <v>24795</v>
       </c>
       <c r="S11">
-        <v>1.743155288632678</v>
+        <v>2.4776847725059721</v>
       </c>
       <c r="T11">
-        <v>1.583538176377643</v>
+        <v>2.5509583665184161</v>
       </c>
       <c r="U11">
-        <v>1.4489931911488</v>
+        <v>2.4123986126196542</v>
       </c>
       <c r="V11">
-        <v>1.01885416186944</v>
+        <v>2.4039255863805709</v>
       </c>
       <c r="W11">
-        <v>0.8165543426257902</v>
+        <v>1.9501091847540639</v>
       </c>
       <c r="X11">
-        <v>-1.516421072137993</v>
+        <v>1.2689956962518281</v>
       </c>
       <c r="Y11">
-        <v>-1.281273194519307</v>
+        <v>-2.203104946055134</v>
       </c>
       <c r="Z11">
-        <v>-0.8345739305963161</v>
+        <v>-2.0743927989659139</v>
       </c>
       <c r="AA11">
-        <v>-0.6043329236435984</v>
+        <v>-1.571122298209408</v>
       </c>
       <c r="AB11">
-        <v>-0.2363164282492676</v>
+        <v>-1.3588591831126271</v>
       </c>
       <c r="AC11">
-        <v>-0.150868700669973</v>
-      </c>
-      <c r="AP11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ11">
-        <v>1</v>
-      </c>
-      <c r="AR11">
+        <v>-1.077111520013502</v>
+      </c>
+      <c r="AD11">
+        <v>-0.52479885437227936</v>
+      </c>
+      <c r="BR11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
         <v>219</v>
@@ -2526,96 +2618,99 @@
         <v>220</v>
       </c>
       <c r="G12">
-        <v>1907</v>
+        <v>647</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.04393163618014884</v>
-      </c>
-      <c r="J12">
-        <v>0.4331410592553749</v>
+        <v>6.4017154400552598E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>254</v>
       </c>
       <c r="K12">
-        <v>-0.7946967767493286</v>
+        <v>0.55795981452859356</v>
       </c>
       <c r="L12">
-        <v>9.596753155850394</v>
+        <v>0.73195248241185717</v>
       </c>
       <c r="M12">
-        <v>3.918151684410767e-11</v>
+        <v>7.0168380514130373</v>
       </c>
       <c r="N12">
-        <v>0.04416761041902605</v>
+        <v>23.206409014168781</v>
       </c>
       <c r="O12">
-        <v>4415</v>
+        <v>1.6601135867190909E-2</v>
       </c>
       <c r="P12">
-        <v>4403</v>
+        <v>4578</v>
       </c>
       <c r="Q12">
-        <v>25021</v>
+        <v>4566</v>
       </c>
       <c r="R12">
-        <v>1.033551675774613</v>
+        <v>24847</v>
       </c>
       <c r="S12">
-        <v>1.500960171473584</v>
+        <v>2.6138845006549309</v>
       </c>
       <c r="T12">
-        <v>1.540782913990302</v>
+        <v>2.8049681297255069</v>
       </c>
       <c r="U12">
-        <v>1.30676677053792</v>
+        <v>2.8516701217917908</v>
       </c>
       <c r="V12">
-        <v>0.5245830101878495</v>
+        <v>3.013074943785544</v>
       </c>
       <c r="W12">
-        <v>-0.321016891534036</v>
+        <v>2.1789055542170161</v>
       </c>
       <c r="X12">
-        <v>-3.653677856461787</v>
+        <v>1.554201642318876</v>
       </c>
       <c r="Y12">
-        <v>-4.119295752513731</v>
+        <v>-2.299196739905538</v>
       </c>
       <c r="Z12">
-        <v>-3.742825048077297</v>
+        <v>-2.1651846241705068</v>
       </c>
       <c r="AA12">
-        <v>-3.310798601124227</v>
+        <v>-1.911885897974225</v>
       </c>
       <c r="AB12">
-        <v>-2.602379095868684</v>
+        <v>-1.9080223561502769</v>
       </c>
       <c r="AC12">
-        <v>-1.690897500752789</v>
-      </c>
-      <c r="AS12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="AU12">
+        <v>-1.2121295985813201</v>
+      </c>
+      <c r="AD12">
+        <v>-0.70637929756721007</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
         <v>219</v>
@@ -2624,96 +2719,99 @@
         <v>220</v>
       </c>
       <c r="G13">
-        <v>1469</v>
+        <v>469</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>-0.004940551298736125</v>
-      </c>
-      <c r="J13">
-        <v>0.4635806671204901</v>
+        <v>8.037626796806209E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>250</v>
       </c>
       <c r="K13">
-        <v>-0.7391006192386127</v>
+        <v>0.53944562899786785</v>
       </c>
       <c r="L13">
-        <v>7.305450112929448</v>
+        <v>0.57573318069659674</v>
       </c>
       <c r="M13">
-        <v>3.529016146277102e-07</v>
+        <v>5.1292545908572933</v>
       </c>
       <c r="N13">
-        <v>0.3600721045515998</v>
+        <v>8.2552443625084173</v>
       </c>
       <c r="O13">
-        <v>4438</v>
+        <v>6.5185800290637322E-2</v>
       </c>
       <c r="P13">
-        <v>4426</v>
+        <v>4817</v>
       </c>
       <c r="Q13">
-        <v>24998</v>
+        <v>4805</v>
       </c>
       <c r="R13">
-        <v>0.6968701522273952</v>
+        <v>24614</v>
       </c>
       <c r="S13">
-        <v>0.9795870953554574</v>
+        <v>1.692295531825778</v>
       </c>
       <c r="T13">
-        <v>0.7251440784859539</v>
+        <v>1.7648468025933259</v>
       </c>
       <c r="U13">
-        <v>0.6261651116046991</v>
+        <v>1.7587853471115691</v>
       </c>
       <c r="V13">
-        <v>-0.2786294006961399</v>
+        <v>1.7278594933584299</v>
       </c>
       <c r="W13">
-        <v>-0.5255532585352535</v>
+        <v>1.4834065114253481</v>
       </c>
       <c r="X13">
-        <v>-2.752552887797508</v>
+        <v>1.1807867646277539</v>
       </c>
       <c r="Y13">
-        <v>-2.980579231123675</v>
+        <v>-1.283900029561484</v>
       </c>
       <c r="Z13">
-        <v>-2.310312985359777</v>
+        <v>-1.15509118668027</v>
       </c>
       <c r="AA13">
-        <v>-2.137700375045088</v>
+        <v>-0.84475926041919025</v>
       </c>
       <c r="AB13">
-        <v>-1.296045264797742</v>
+        <v>-0.67159656574894522</v>
       </c>
       <c r="AC13">
-        <v>-1.058002085840774</v>
-      </c>
-      <c r="AS13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT13">
-        <v>1</v>
-      </c>
-      <c r="AU13">
+        <v>-0.54087177419842902</v>
+      </c>
+      <c r="AD13">
+        <v>-0.43673116752222041</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
         <v>219</v>
@@ -2722,96 +2820,99 @@
         <v>220</v>
       </c>
       <c r="G14">
-        <v>1285</v>
+        <v>556</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.02932418129022334</v>
-      </c>
-      <c r="J14">
-        <v>0.4373540856031128</v>
+        <v>9.9331306180043225E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>262</v>
       </c>
       <c r="K14">
-        <v>-0.5647988694547782</v>
+        <v>0.54496402877697847</v>
       </c>
       <c r="L14">
-        <v>10.54606333250574</v>
+        <v>0.57713894857244441</v>
       </c>
       <c r="M14">
-        <v>5.401627382349322e-07</v>
+        <v>7.0568695735390916</v>
       </c>
       <c r="N14">
-        <v>0.01818566293085219</v>
+        <v>6.3193311547040798</v>
       </c>
       <c r="O14">
-        <v>4729</v>
+        <v>4.9775784753363229E-2</v>
       </c>
       <c r="P14">
-        <v>4717</v>
+        <v>4460</v>
       </c>
       <c r="Q14">
-        <v>24702</v>
+        <v>4448</v>
       </c>
       <c r="R14">
-        <v>1.865541596602244</v>
+        <v>24973</v>
       </c>
       <c r="S14">
-        <v>2.352535465999487</v>
+        <v>2.754842724760092</v>
       </c>
       <c r="T14">
-        <v>2.190451919325615</v>
+        <v>2.8308831397814149</v>
       </c>
       <c r="U14">
-        <v>2.072123617047339</v>
+        <v>2.9785688364410059</v>
       </c>
       <c r="V14">
-        <v>1.116315371974152</v>
+        <v>2.9174575512980589</v>
       </c>
       <c r="W14">
-        <v>0.06000106682261392</v>
+        <v>2.117085527874623</v>
       </c>
       <c r="X14">
-        <v>-4.380111823317051</v>
+        <v>1.4610153468838869</v>
       </c>
       <c r="Y14">
-        <v>-4.640238485988772</v>
+        <v>-2.9666455529221989</v>
       </c>
       <c r="Z14">
-        <v>-4.031009529420354</v>
+        <v>-2.7221677798976889</v>
       </c>
       <c r="AA14">
-        <v>-3.603048952820584</v>
+        <v>-2.4779968134519081</v>
       </c>
       <c r="AB14">
-        <v>-2.73541410670175</v>
+        <v>-2.1508442272938768</v>
       </c>
       <c r="AC14">
-        <v>-1.80661765643169</v>
-      </c>
-      <c r="AV14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>1</v>
-      </c>
-      <c r="AX14">
+        <v>-1.3799586619595119</v>
+      </c>
+      <c r="AD14">
+        <v>-0.97261565744282885</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
         <v>219</v>
@@ -2820,96 +2921,99 @@
         <v>220</v>
       </c>
       <c r="G15">
-        <v>505</v>
+        <v>692</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.1020428260897444</v>
-      </c>
-      <c r="J15">
-        <v>0.5267326732673268</v>
+        <v>2.963883343417421E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>251</v>
       </c>
       <c r="K15">
-        <v>0.08751530718163547</v>
+        <v>0.54335260115606931</v>
       </c>
       <c r="L15">
-        <v>4.020224822702223</v>
+        <v>0.59271444489162539</v>
       </c>
       <c r="M15">
-        <v>1.032394345787039</v>
+        <v>8.5106089024379177</v>
       </c>
       <c r="N15">
-        <v>0.2014342965619068</v>
+        <v>5.2680961935665263</v>
       </c>
       <c r="O15">
-        <v>4741</v>
+        <v>3.7401574803149609E-2</v>
       </c>
       <c r="P15">
-        <v>4729</v>
+        <v>4064</v>
       </c>
       <c r="Q15">
-        <v>24690</v>
+        <v>4052</v>
       </c>
       <c r="R15">
-        <v>1.082414091656859</v>
+        <v>25356</v>
       </c>
       <c r="S15">
-        <v>1.070855770680023</v>
+        <v>2.7692885909067768</v>
       </c>
       <c r="T15">
-        <v>1.010913411522056</v>
+        <v>2.9320295620339989</v>
       </c>
       <c r="U15">
-        <v>0.9559679781429552</v>
+        <v>2.9506160421771419</v>
       </c>
       <c r="V15">
-        <v>0.7511353504112361</v>
+        <v>3.011001267341165</v>
       </c>
       <c r="W15">
-        <v>0.3501519846241987</v>
+        <v>2.4450750777475712</v>
       </c>
       <c r="X15">
-        <v>-1.513265029515562</v>
+        <v>1.3857222429945379</v>
       </c>
       <c r="Y15">
-        <v>-1.343693808411808</v>
+        <v>-2.6257016416858501</v>
       </c>
       <c r="Z15">
-        <v>-1.072316542700619</v>
+        <v>-2.724231292063485</v>
       </c>
       <c r="AA15">
-        <v>-0.9855250677549241</v>
+        <v>-2.3235389444748771</v>
       </c>
       <c r="AB15">
-        <v>-0.7247244858545507</v>
+        <v>-2.1787194070807629</v>
       </c>
       <c r="AC15">
-        <v>-0.3723607973355219</v>
-      </c>
-      <c r="AV15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
+        <v>-1.8212114906236501</v>
+      </c>
+      <c r="AD15">
+        <v>-0.84686478196240544</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
         <v>219</v>
@@ -2918,96 +3022,99 @@
         <v>220</v>
       </c>
       <c r="G16">
-        <v>654</v>
+        <v>431</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.05229482925253989</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
+        <v>-3.3390397725560059E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>256</v>
       </c>
       <c r="K16">
-        <v>-0.06393980735648735</v>
+        <v>0.53364269141531318</v>
       </c>
       <c r="L16">
-        <v>8.421506423943224</v>
+        <v>0.4662485092169546</v>
       </c>
       <c r="M16">
-        <v>0.06058079075522366</v>
+        <v>4.9674097257929883</v>
       </c>
       <c r="N16">
-        <v>0.02119205298013245</v>
+        <v>4.4632088195850592</v>
       </c>
       <c r="O16">
-        <v>4530</v>
+        <v>9.3324963381460554E-2</v>
       </c>
       <c r="P16">
-        <v>4518</v>
+        <v>4779</v>
       </c>
       <c r="Q16">
-        <v>24880</v>
+        <v>4767</v>
       </c>
       <c r="R16">
-        <v>1.944398873093745</v>
+        <v>24657</v>
       </c>
       <c r="S16">
-        <v>2.403977645040225</v>
+        <v>1.731473527409076</v>
       </c>
       <c r="T16">
-        <v>2.337137107158584</v>
+        <v>1.743155288632678</v>
       </c>
       <c r="U16">
-        <v>2.752577055764437</v>
+        <v>1.583538176377643</v>
       </c>
       <c r="V16">
-        <v>1.923967760058349</v>
+        <v>1.4489931911488001</v>
       </c>
       <c r="W16">
-        <v>0.649883742261625</v>
+        <v>1.01885416186944</v>
       </c>
       <c r="X16">
-        <v>-3.476103934652421</v>
+        <v>0.81655434262579019</v>
       </c>
       <c r="Y16">
-        <v>-3.724792763916518</v>
+        <v>-1.5164210721379929</v>
       </c>
       <c r="Z16">
-        <v>-3.146148719131319</v>
+        <v>-1.281273194519307</v>
       </c>
       <c r="AA16">
-        <v>-3.298416473046529</v>
+        <v>-0.83457393059631613</v>
       </c>
       <c r="AB16">
-        <v>-2.600144304967639</v>
+        <v>-0.60433292364359836</v>
       </c>
       <c r="AC16">
-        <v>-1.395920200901524</v>
-      </c>
-      <c r="AY16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>1</v>
-      </c>
-      <c r="BA16">
+        <v>-0.2363164282492676</v>
+      </c>
+      <c r="AD16">
+        <v>-0.15086870066997299</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:77">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s">
         <v>219</v>
@@ -3016,96 +3123,99 @@
         <v>220</v>
       </c>
       <c r="G17">
-        <v>556</v>
+        <v>442</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.09933130618004322</v>
-      </c>
-      <c r="J17">
-        <v>0.5449640287769785</v>
+        <v>7.9253990046265863E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>253</v>
       </c>
       <c r="K17">
-        <v>0.5771389485724444</v>
+        <v>0.56108597285067874</v>
       </c>
       <c r="L17">
-        <v>7.056869573539092</v>
+        <v>0.40293852324335988</v>
       </c>
       <c r="M17">
-        <v>6.31933115470408</v>
+        <v>4.4900020753362524</v>
       </c>
       <c r="N17">
-        <v>0.04977578475336323</v>
+        <v>3.7571951831028878</v>
       </c>
       <c r="O17">
-        <v>4460</v>
+        <v>4.9697222802255171E-2</v>
       </c>
       <c r="P17">
-        <v>4448</v>
+        <v>4789</v>
       </c>
       <c r="Q17">
-        <v>24973</v>
+        <v>4777</v>
       </c>
       <c r="R17">
-        <v>2.754842724760092</v>
+        <v>24647</v>
       </c>
       <c r="S17">
-        <v>2.830883139781415</v>
+        <v>1.6300173195812691</v>
       </c>
       <c r="T17">
-        <v>2.978568836441006</v>
+        <v>1.6017231414179769</v>
       </c>
       <c r="U17">
-        <v>2.917457551298059</v>
+        <v>1.6582539242184411</v>
       </c>
       <c r="V17">
-        <v>2.117085527874623</v>
+        <v>1.6229580850491789</v>
       </c>
       <c r="W17">
-        <v>1.461015346883887</v>
+        <v>1.311544775487145</v>
       </c>
       <c r="X17">
-        <v>-2.966645552922199</v>
+        <v>1.026492944444644</v>
       </c>
       <c r="Y17">
-        <v>-2.722167779897689</v>
+        <v>-1.5725814759185079</v>
       </c>
       <c r="Z17">
-        <v>-2.477996813451908</v>
+        <v>-1.241080427772616</v>
       </c>
       <c r="AA17">
-        <v>-2.150844227293877</v>
+        <v>-1.0559202869798681</v>
       </c>
       <c r="AB17">
-        <v>-1.379958661959512</v>
+        <v>-0.90345540795932167</v>
       </c>
       <c r="AC17">
-        <v>-0.9726156574428289</v>
-      </c>
-      <c r="AY17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17">
-        <v>1</v>
-      </c>
-      <c r="BA17">
+        <v>-0.70248941794980757</v>
+      </c>
+      <c r="AD17">
+        <v>-0.66114476723763005</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:77">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
         <v>219</v>
@@ -3114,85 +3224,88 @@
         <v>220</v>
       </c>
       <c r="G18">
-        <v>834</v>
+        <v>645</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.08357778046013674</v>
-      </c>
-      <c r="J18">
-        <v>0.5011990407673861</v>
+        <v>0.111799321263773</v>
+      </c>
+      <c r="J18" t="s">
+        <v>249</v>
       </c>
       <c r="K18">
-        <v>0.4239115071823681</v>
+        <v>0.56279069767441858</v>
       </c>
       <c r="L18">
-        <v>9.63923333048276</v>
+        <v>0.38272417891082888</v>
       </c>
       <c r="M18">
-        <v>0.7554735434598059</v>
+        <v>7.057221324062267</v>
       </c>
       <c r="N18">
-        <v>0.04138513513513514</v>
+        <v>2.2781300784326342</v>
       </c>
       <c r="O18">
-        <v>4736</v>
+        <v>3.271537622682661E-2</v>
       </c>
       <c r="P18">
-        <v>4724</v>
+        <v>4585</v>
       </c>
       <c r="Q18">
-        <v>24681</v>
+        <v>4573</v>
       </c>
       <c r="R18">
-        <v>2.873729939049763</v>
+        <v>24838</v>
       </c>
       <c r="S18">
-        <v>3.095328738450458</v>
+        <v>2.0822283670055568</v>
       </c>
       <c r="T18">
-        <v>2.893665193794717</v>
+        <v>2.5344955469674262</v>
       </c>
       <c r="U18">
-        <v>2.60312181129187</v>
+        <v>2.5212525295961599</v>
       </c>
       <c r="V18">
-        <v>2.095094570204379</v>
+        <v>2.2386056702656658</v>
       </c>
       <c r="W18">
-        <v>1.106612899733301</v>
+        <v>1.62436328798062</v>
       </c>
       <c r="X18">
-        <v>-3.418786382326703</v>
+        <v>0.93997621773488504</v>
       </c>
       <c r="Y18">
-        <v>-3.330587700933219</v>
+        <v>-2.5380456015471902</v>
       </c>
       <c r="Z18">
-        <v>-2.691610228293651</v>
+        <v>-2.7574295614384341</v>
       </c>
       <c r="AA18">
-        <v>-1.976066869777953</v>
+        <v>-2.27831807573323</v>
       </c>
       <c r="AB18">
-        <v>-1.478612437193486</v>
+        <v>-1.757821385354124</v>
       </c>
       <c r="AC18">
-        <v>-0.659015743180599</v>
-      </c>
-      <c r="BB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>1</v>
-      </c>
-      <c r="BD18">
+        <v>-1.302024251598106</v>
+      </c>
+      <c r="AD18">
+        <v>-0.64893683850352601</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:77">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -3218,90 +3331,93 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.1124032396448642</v>
-      </c>
-      <c r="J19">
-        <v>0.5417256011315418</v>
+        <v>0.11240323964486421</v>
+      </c>
+      <c r="J19" t="s">
+        <v>264</v>
       </c>
       <c r="K19">
-        <v>0.4317630618208548</v>
+        <v>0.54172560113154178</v>
       </c>
       <c r="L19">
-        <v>7.932151210032775</v>
+        <v>0.43176306182085478</v>
       </c>
       <c r="M19">
+        <v>7.9321512100327753</v>
+      </c>
+      <c r="N19">
         <v>2.258699029626007</v>
       </c>
-      <c r="N19">
-        <v>0.04783191774698257</v>
-      </c>
       <c r="O19">
+        <v>4.7831917746982568E-2</v>
+      </c>
+      <c r="P19">
         <v>4474</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4462</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>24944</v>
       </c>
-      <c r="R19">
-        <v>3.014676464704767</v>
-      </c>
       <c r="S19">
+        <v>3.0146764647047668</v>
+      </c>
+      <c r="T19">
         <v>3.373736070867777</v>
       </c>
-      <c r="T19">
-        <v>3.478929659896895</v>
-      </c>
       <c r="U19">
-        <v>3.349219691902882</v>
+        <v>3.4789296598968948</v>
       </c>
       <c r="V19">
-        <v>2.091596952091084</v>
+        <v>3.3492196919028818</v>
       </c>
       <c r="W19">
-        <v>1.354944553036222</v>
+        <v>2.0915969520910842</v>
       </c>
       <c r="X19">
-        <v>-3.432942536260689</v>
+        <v>1.3549445530362221</v>
       </c>
       <c r="Y19">
+        <v>-3.4329425362606889</v>
+      </c>
+      <c r="Z19">
         <v>-3.62412062040648</v>
       </c>
-      <c r="Z19">
-        <v>-2.964094546958088</v>
-      </c>
       <c r="AA19">
-        <v>-2.6568666632051</v>
+        <v>-2.9640945469580879</v>
       </c>
       <c r="AB19">
-        <v>-1.4569060931357</v>
+        <v>-2.6568666632051001</v>
       </c>
       <c r="AC19">
-        <v>-1.100046206607468</v>
-      </c>
-      <c r="BB19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC19">
+        <v>-1.4569060931357001</v>
+      </c>
+      <c r="AD19">
+        <v>-1.1000462066074681</v>
+      </c>
+      <c r="BC19" t="b">
         <v>1</v>
       </c>
       <c r="BD19">
         <v>1</v>
       </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:77">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
         <v>219</v>
@@ -3310,96 +3426,99 @@
         <v>220</v>
       </c>
       <c r="G20">
-        <v>1166</v>
+        <v>427</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.06017742082655107</v>
-      </c>
-      <c r="J20">
-        <v>0.4296740994854202</v>
+        <v>0.1281260435259349</v>
+      </c>
+      <c r="J20" t="s">
+        <v>247</v>
       </c>
       <c r="K20">
-        <v>-0.8058481837564474</v>
+        <v>0.50117096018735363</v>
       </c>
       <c r="L20">
-        <v>10.49122804965449</v>
+        <v>0.14406898829610321</v>
       </c>
       <c r="M20">
-        <v>1.561981082259742e-07</v>
+        <v>3.4919855422826829</v>
       </c>
       <c r="N20">
-        <v>0.1158549667453336</v>
+        <v>1.431994300746005</v>
       </c>
       <c r="O20">
-        <v>4661</v>
+        <v>7.855973813420622E-2</v>
       </c>
       <c r="P20">
-        <v>4649</v>
+        <v>4888</v>
       </c>
       <c r="Q20">
-        <v>24762</v>
+        <v>4876</v>
       </c>
       <c r="R20">
-        <v>1.07036821145955</v>
+        <v>24548</v>
       </c>
       <c r="S20">
-        <v>1.348416322325093</v>
+        <v>0.51702987214159479</v>
       </c>
       <c r="T20">
-        <v>1.868574082938518</v>
+        <v>0.61304345593757481</v>
       </c>
       <c r="U20">
-        <v>1.519797789331143</v>
+        <v>0.66837018820153427</v>
       </c>
       <c r="V20">
-        <v>0.6390668307386235</v>
+        <v>0.68837510070311647</v>
       </c>
       <c r="W20">
-        <v>-0.2565157086841791</v>
+        <v>0.50687801230834906</v>
       </c>
       <c r="X20">
-        <v>-3.766416013990328</v>
+        <v>0.23252192623094001</v>
       </c>
       <c r="Y20">
-        <v>-3.911958744127289</v>
+        <v>-0.4644809239796201</v>
       </c>
       <c r="Z20">
-        <v>-3.83168431582421</v>
+        <v>-0.51328121351207734</v>
       </c>
       <c r="AA20">
-        <v>-3.252730825605786</v>
+        <v>-0.46919292282792768</v>
       </c>
       <c r="AB20">
-        <v>-2.61521414150434</v>
+        <v>-0.44631033787579011</v>
       </c>
       <c r="AC20">
-        <v>-1.790278170420808</v>
-      </c>
-      <c r="BE20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
+        <v>-0.31243727844267971</v>
+      </c>
+      <c r="AD20">
+        <v>5.1506454979659477E-3</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:77">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
         <v>219</v>
@@ -3408,96 +3527,99 @@
         <v>220</v>
       </c>
       <c r="G21">
-        <v>1327</v>
+        <v>505</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.05415634318137765</v>
-      </c>
-      <c r="J21">
-        <v>0.4461190655614167</v>
+        <v>0.1020428260897444</v>
+      </c>
+      <c r="J21" t="s">
+        <v>260</v>
       </c>
       <c r="K21">
-        <v>-0.7871621823664587</v>
+        <v>0.52673267326732676</v>
       </c>
       <c r="L21">
-        <v>8.184598793843024</v>
+        <v>8.7515307181635471E-2</v>
       </c>
       <c r="M21">
-        <v>2.967896567794733e-07</v>
+        <v>4.0202248227022226</v>
       </c>
       <c r="N21">
-        <v>0.07661909989023051</v>
+        <v>1.032394345787039</v>
       </c>
       <c r="O21">
-        <v>4555</v>
+        <v>0.20143429656190681</v>
       </c>
       <c r="P21">
-        <v>4543</v>
+        <v>4741</v>
       </c>
       <c r="Q21">
-        <v>24870</v>
+        <v>4729</v>
       </c>
       <c r="R21">
-        <v>1.495647721347271</v>
+        <v>24690</v>
       </c>
       <c r="S21">
-        <v>1.920368159363338</v>
+        <v>1.082414091656859</v>
       </c>
       <c r="T21">
-        <v>1.700107310640303</v>
+        <v>1.070855770680023</v>
       </c>
       <c r="U21">
-        <v>1.548718172558627</v>
+        <v>1.0109134115220559</v>
       </c>
       <c r="V21">
-        <v>0.8891580145417669</v>
+        <v>0.9559679781429552</v>
       </c>
       <c r="W21">
-        <v>-0.0676530277863559</v>
+        <v>0.75113535041123614</v>
       </c>
       <c r="X21">
-        <v>-4.329018575075681</v>
+        <v>0.35015198462419872</v>
       </c>
       <c r="Y21">
-        <v>-4.54045416174441</v>
+        <v>-1.5132650295155621</v>
       </c>
       <c r="Z21">
-        <v>-3.8451970052802</v>
+        <v>-1.343693808411808</v>
       </c>
       <c r="AA21">
-        <v>-3.472905456822149</v>
+        <v>-1.0723165427006189</v>
       </c>
       <c r="AB21">
-        <v>-2.963972100607917</v>
+        <v>-0.9855250677549241</v>
       </c>
       <c r="AC21">
-        <v>-2.088095310676926</v>
-      </c>
-      <c r="BE21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
+        <v>-0.72472448585455074</v>
+      </c>
+      <c r="AD21">
+        <v>-0.37236079733552191</v>
+      </c>
+      <c r="AW21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:77">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
         <v>219</v>
@@ -3506,96 +3628,99 @@
         <v>220</v>
       </c>
       <c r="G22">
-        <v>1815</v>
+        <v>834</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.03400059182868387</v>
-      </c>
-      <c r="J22">
-        <v>0.4060606060606061</v>
+        <v>8.3577780460136739E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>263</v>
       </c>
       <c r="K22">
-        <v>-1.469521725409272</v>
+        <v>0.50119904076738608</v>
       </c>
       <c r="L22">
-        <v>11.11620414634882</v>
+        <v>0.42391150718236809</v>
       </c>
       <c r="M22">
-        <v>3.240510591594662e-17</v>
+        <v>9.6392333304827602</v>
       </c>
       <c r="N22">
-        <v>0.1478391099700471</v>
+        <v>0.75547354345980589</v>
       </c>
       <c r="O22">
-        <v>4674</v>
+        <v>4.1385135135135143E-2</v>
       </c>
       <c r="P22">
-        <v>4662</v>
+        <v>4736</v>
       </c>
       <c r="Q22">
-        <v>24762</v>
+        <v>4724</v>
       </c>
       <c r="R22">
-        <v>0.5764425202952792</v>
+        <v>24681</v>
       </c>
       <c r="S22">
-        <v>1.045628281767892</v>
+        <v>2.8737299390497628</v>
       </c>
       <c r="T22">
-        <v>1.120484731975384</v>
+        <v>3.095328738450458</v>
       </c>
       <c r="U22">
-        <v>0.5444306996953906</v>
+        <v>2.8936651937947171</v>
       </c>
       <c r="V22">
-        <v>-0.455721646011176</v>
+        <v>2.6031218112918699</v>
       </c>
       <c r="W22">
-        <v>-1.026035326960407</v>
+        <v>2.0950945702043788</v>
       </c>
       <c r="X22">
-        <v>-4.66377627805918</v>
+        <v>1.1066128997333009</v>
       </c>
       <c r="Y22">
-        <v>-5.033704588103095</v>
+        <v>-3.4187863823267031</v>
       </c>
       <c r="Z22">
-        <v>-4.620305412926292</v>
+        <v>-3.330587700933219</v>
       </c>
       <c r="AA22">
-        <v>-3.764376246496922</v>
+        <v>-2.6916102282936509</v>
       </c>
       <c r="AB22">
-        <v>-2.825221068000609</v>
+        <v>-1.9760668697779531</v>
       </c>
       <c r="AC22">
-        <v>-2.303367402172109</v>
-      </c>
-      <c r="BH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI22">
-        <v>1</v>
-      </c>
-      <c r="BJ22">
+        <v>-1.4786124371934859</v>
+      </c>
+      <c r="AD22">
+        <v>-0.65901574318059897</v>
+      </c>
+      <c r="BC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:77">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
         <v>219</v>
@@ -3604,96 +3729,99 @@
         <v>220</v>
       </c>
       <c r="G23">
-        <v>1771</v>
+        <v>546</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.0900349777336624</v>
-      </c>
-      <c r="J23">
-        <v>0.4184076792772445</v>
+        <v>0.12806411769825291</v>
+      </c>
+      <c r="J23" t="s">
+        <v>269</v>
       </c>
       <c r="K23">
-        <v>-0.9578980716821661</v>
+        <v>0.49816849816849818</v>
       </c>
       <c r="L23">
-        <v>8.02185118366083</v>
+        <v>-0.15149852029165831</v>
       </c>
       <c r="M23">
-        <v>1.204545663699048e-10</v>
+        <v>7.1996888807410544</v>
       </c>
       <c r="N23">
-        <v>0.09308510638297872</v>
+        <v>0.1052727410422962</v>
       </c>
       <c r="O23">
-        <v>4512</v>
+        <v>9.8553155797861183E-3</v>
       </c>
       <c r="P23">
-        <v>4500</v>
+        <v>4769</v>
       </c>
       <c r="Q23">
-        <v>24924</v>
+        <v>4757</v>
       </c>
       <c r="R23">
-        <v>1.234786988681813</v>
+        <v>24659</v>
       </c>
       <c r="S23">
-        <v>1.631784475694889</v>
+        <v>1.2510295293510481</v>
       </c>
       <c r="T23">
-        <v>1.46836276426177</v>
+        <v>1.31281406898014</v>
       </c>
       <c r="U23">
-        <v>1.137351502808897</v>
+        <v>1.5334026002169641</v>
       </c>
       <c r="V23">
-        <v>0.3458519896596274</v>
+        <v>1.600811171205246</v>
       </c>
       <c r="W23">
-        <v>-0.3180563753473246</v>
+        <v>1.108491975092198</v>
       </c>
       <c r="X23">
-        <v>-4.325983552950365</v>
+        <v>0.24966915895156139</v>
       </c>
       <c r="Y23">
-        <v>-4.571459563013526</v>
+        <v>-2.375855223713645</v>
       </c>
       <c r="Z23">
-        <v>-3.912321522705293</v>
+        <v>-2.3522475542523051</v>
       </c>
       <c r="AA23">
-        <v>-3.45089637986921</v>
+        <v>-2.3625085562320152</v>
       </c>
       <c r="AB23">
-        <v>-2.821569709656885</v>
+        <v>-2.2082960006112491</v>
       </c>
       <c r="AC23">
-        <v>-2.155612774591213</v>
-      </c>
-      <c r="BH23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI23">
-        <v>1</v>
-      </c>
-      <c r="BJ23">
+        <v>-1.7896556141981079</v>
+      </c>
+      <c r="AD23">
+        <v>-0.91110716511223333</v>
+      </c>
+      <c r="BL23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>1</v>
+      </c>
+      <c r="BN23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:77">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
         <v>219</v>
@@ -3702,96 +3830,99 @@
         <v>220</v>
       </c>
       <c r="G24">
-        <v>546</v>
+        <v>654</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.1280641176982529</v>
-      </c>
-      <c r="J24">
-        <v>0.4981684981684982</v>
+        <v>5.2294829252539893E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>261</v>
       </c>
       <c r="K24">
-        <v>-0.1514985202916583</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>7.199688880741054</v>
+        <v>-6.3939807356487355E-2</v>
       </c>
       <c r="M24">
-        <v>0.1052727410422962</v>
+        <v>8.4215064239432245</v>
       </c>
       <c r="N24">
-        <v>0.009855315579786118</v>
+        <v>6.0580790755223657E-2</v>
       </c>
       <c r="O24">
-        <v>4769</v>
+        <v>2.119205298013245E-2</v>
       </c>
       <c r="P24">
-        <v>4757</v>
+        <v>4530</v>
       </c>
       <c r="Q24">
-        <v>24659</v>
+        <v>4518</v>
       </c>
       <c r="R24">
-        <v>1.251029529351048</v>
+        <v>24880</v>
       </c>
       <c r="S24">
-        <v>1.31281406898014</v>
+        <v>1.9443988730937449</v>
       </c>
       <c r="T24">
-        <v>1.533402600216964</v>
+        <v>2.403977645040225</v>
       </c>
       <c r="U24">
-        <v>1.600811171205246</v>
+        <v>2.337137107158584</v>
       </c>
       <c r="V24">
-        <v>1.108491975092198</v>
+        <v>2.7525770557644371</v>
       </c>
       <c r="W24">
-        <v>0.2496691589515614</v>
+        <v>1.9239677600583489</v>
       </c>
       <c r="X24">
-        <v>-2.375855223713645</v>
+        <v>0.64988374226162504</v>
       </c>
       <c r="Y24">
-        <v>-2.352247554252305</v>
+        <v>-3.476103934652421</v>
       </c>
       <c r="Z24">
-        <v>-2.362508556232015</v>
+        <v>-3.7247927639165179</v>
       </c>
       <c r="AA24">
-        <v>-2.208296000611249</v>
+        <v>-3.1461487191313191</v>
       </c>
       <c r="AB24">
-        <v>-1.789655614198108</v>
+        <v>-3.2984164730465291</v>
       </c>
       <c r="AC24">
-        <v>-0.9111071651122333</v>
-      </c>
-      <c r="BK24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>1</v>
-      </c>
-      <c r="BM24">
+        <v>-2.6001443049676389</v>
+      </c>
+      <c r="AD24">
+        <v>-1.3959202009015239</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:77">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
         <v>219</v>
@@ -3800,96 +3931,99 @@
         <v>220</v>
       </c>
       <c r="G25">
-        <v>663</v>
+        <v>911</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.0712059505541669</v>
-      </c>
-      <c r="J25">
-        <v>0.5746606334841629</v>
+        <v>4.3165460941574058E-2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>284</v>
       </c>
       <c r="K25">
-        <v>0.6593836527400513</v>
+        <v>0.45005488474204169</v>
       </c>
       <c r="L25">
-        <v>5.303962283260828</v>
+        <v>-0.46871339196239942</v>
       </c>
       <c r="M25">
-        <v>30.22427813218087</v>
+        <v>5.8597776834056514</v>
       </c>
       <c r="N25">
-        <v>0.205026455026455</v>
+        <v>2.6843181767762219E-3</v>
       </c>
       <c r="O25">
-        <v>4536</v>
+        <v>3.6566673965403987E-2</v>
       </c>
       <c r="P25">
-        <v>4524</v>
+        <v>4567</v>
       </c>
       <c r="Q25">
-        <v>24889</v>
+        <v>4555</v>
       </c>
       <c r="R25">
-        <v>2.01954328462451</v>
+        <v>24862</v>
       </c>
       <c r="S25">
-        <v>2.173300874527779</v>
+        <v>1.3934187911116971</v>
       </c>
       <c r="T25">
-        <v>2.169197764417384</v>
+        <v>1.6399099771225669</v>
       </c>
       <c r="U25">
-        <v>2.1550273706092</v>
+        <v>1.3356577109203549</v>
       </c>
       <c r="V25">
-        <v>1.801867530488209</v>
+        <v>1.127644098860372</v>
       </c>
       <c r="W25">
-        <v>1.267320812417765</v>
+        <v>0.67558886143943353</v>
       </c>
       <c r="X25">
-        <v>-1.638626314275866</v>
+        <v>1.0574509967553099E-2</v>
       </c>
       <c r="Y25">
-        <v>-1.618016732723689</v>
+        <v>-3.4412108422413841</v>
       </c>
       <c r="Z25">
-        <v>-1.395049154846835</v>
+        <v>-3.403319893781299</v>
       </c>
       <c r="AA25">
-        <v>-1.150775019110761</v>
+        <v>-2.6055869734533368</v>
       </c>
       <c r="AB25">
-        <v>-0.7784621168308921</v>
+        <v>-2.2294517384657211</v>
       </c>
       <c r="AC25">
-        <v>-0.4394317721710792</v>
-      </c>
-      <c r="BK25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL25">
-        <v>1</v>
-      </c>
-      <c r="BM25">
+        <v>-1.9151720753980159</v>
+      </c>
+      <c r="AD25">
+        <v>-1.288024519470792</v>
+      </c>
+      <c r="CG25" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH25">
+        <v>1</v>
+      </c>
+      <c r="CI25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:77">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
         <v>219</v>
@@ -3898,96 +4032,99 @@
         <v>220</v>
       </c>
       <c r="G26">
-        <v>1215</v>
+        <v>1894</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0.003307027378444734</v>
-      </c>
-      <c r="J26">
-        <v>0.4617283950617284</v>
+        <v>-2.1306479105212502E-2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>280</v>
       </c>
       <c r="K26">
-        <v>-0.3958479425950457</v>
+        <v>0.50263991552270326</v>
       </c>
       <c r="L26">
-        <v>7.770038037620956</v>
+        <v>-9.9604731020669177E-2</v>
       </c>
       <c r="M26">
-        <v>0.0002068543764170952</v>
+        <v>7.0501654951648334</v>
       </c>
       <c r="N26">
-        <v>0.007981516488132745</v>
+        <v>1.1248270558903281E-3</v>
       </c>
       <c r="O26">
-        <v>4761</v>
+        <v>3.5440822577116601E-2</v>
       </c>
       <c r="P26">
-        <v>4749</v>
+        <v>4571</v>
       </c>
       <c r="Q26">
-        <v>24667</v>
+        <v>4559</v>
       </c>
       <c r="R26">
-        <v>1.281008391414625</v>
+        <v>24865</v>
       </c>
       <c r="S26">
-        <v>1.66320232969632</v>
+        <v>1.601180161347183</v>
       </c>
       <c r="T26">
-        <v>1.358964523705188</v>
+        <v>2.0671824875387439</v>
       </c>
       <c r="U26">
-        <v>1.537284700437784</v>
+        <v>2.1191385279270918</v>
       </c>
       <c r="V26">
-        <v>1.036686368059998</v>
+        <v>1.9996424018976899</v>
       </c>
       <c r="W26">
-        <v>0.06765648636873185</v>
+        <v>1.20222861057133</v>
       </c>
       <c r="X26">
-        <v>-3.152295123626088</v>
+        <v>0.49683862580057991</v>
       </c>
       <c r="Y26">
-        <v>-3.446960767395014</v>
+        <v>-2.675460052901578</v>
       </c>
       <c r="Z26">
-        <v>-2.728415626015406</v>
+        <v>-3.055537318205868</v>
       </c>
       <c r="AA26">
-        <v>-2.735949821525426</v>
+        <v>-2.69339430355322</v>
       </c>
       <c r="AB26">
-        <v>-2.236909445595691</v>
+        <v>-2.349013088219702</v>
       </c>
       <c r="AC26">
-        <v>-1.289534578070812</v>
-      </c>
-      <c r="BN26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO26">
-        <v>1</v>
-      </c>
-      <c r="BP26">
+        <v>-1.689449598002557</v>
+      </c>
+      <c r="AD26">
+        <v>-1.0751095785644309</v>
+      </c>
+      <c r="CA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="CB26">
+        <v>1</v>
+      </c>
+      <c r="CC26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:77">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
         <v>219</v>
@@ -3996,96 +4133,99 @@
         <v>220</v>
       </c>
       <c r="G27">
-        <v>1350</v>
+        <v>870</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0.03227226569491881</v>
-      </c>
-      <c r="J27">
-        <v>0.4</v>
+        <v>-4.5370524389067787E-2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>273</v>
       </c>
       <c r="K27">
-        <v>-1.695946335493285</v>
+        <v>0.42988505747126438</v>
       </c>
       <c r="L27">
-        <v>9.227221152652815</v>
+        <v>-0.37000690313600271</v>
       </c>
       <c r="M27">
-        <v>3.475981641568654e-13</v>
+        <v>9.8540244380006925</v>
       </c>
       <c r="N27">
-        <v>0.4162594402487783</v>
+        <v>7.5621852454685735E-4</v>
       </c>
       <c r="O27">
-        <v>4502</v>
+        <v>0.10501700680272109</v>
       </c>
       <c r="P27">
-        <v>4490</v>
+        <v>4704</v>
       </c>
       <c r="Q27">
-        <v>24926</v>
+        <v>4692</v>
       </c>
       <c r="R27">
-        <v>-0.1024991198900611</v>
+        <v>24709</v>
       </c>
       <c r="S27">
-        <v>0.3154400087722518</v>
+        <v>1.85534724493821</v>
       </c>
       <c r="T27">
-        <v>0.3210433528169201</v>
+        <v>2.2720085944559472</v>
       </c>
       <c r="U27">
-        <v>0.03557978388021486</v>
+        <v>2.2080653326444888</v>
       </c>
       <c r="V27">
-        <v>-0.4282121607873576</v>
+        <v>1.811389108238546</v>
       </c>
       <c r="W27">
-        <v>-0.8679110914473651</v>
+        <v>0.85956930743610371</v>
       </c>
       <c r="X27">
-        <v>-4.121235149780589</v>
+        <v>0.28377468959113938</v>
       </c>
       <c r="Y27">
-        <v>-4.417903851419432</v>
+        <v>-3.7893548898434042</v>
       </c>
       <c r="Z27">
-        <v>-3.953071151652459</v>
+        <v>-3.9866216652581632</v>
       </c>
       <c r="AA27">
-        <v>-3.489447983879923</v>
+        <v>-3.4617341024408481</v>
       </c>
       <c r="AB27">
-        <v>-3.137626321773638</v>
+        <v>-2.7084904727958041</v>
       </c>
       <c r="AC27">
-        <v>-2.886632554269458</v>
-      </c>
-      <c r="BN27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
+        <v>-1.803365194929526</v>
+      </c>
+      <c r="AD27">
+        <v>-1.409001292615145</v>
+      </c>
+      <c r="BR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:77">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
         <v>219</v>
@@ -4094,96 +4234,99 @@
         <v>220</v>
       </c>
       <c r="G28">
-        <v>870</v>
+        <v>1215</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>-0.04537052438906779</v>
-      </c>
-      <c r="J28">
-        <v>0.4298850574712644</v>
+        <v>3.307027378444734E-3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
       </c>
       <c r="K28">
-        <v>-0.3700069031360027</v>
+        <v>0.46172839506172841</v>
       </c>
       <c r="L28">
-        <v>9.854024438000692</v>
+        <v>-0.39584794259504569</v>
       </c>
       <c r="M28">
-        <v>0.0007562185245468574</v>
+        <v>7.7700380376209557</v>
       </c>
       <c r="N28">
-        <v>0.1050170068027211</v>
+        <v>2.0685437641709519E-4</v>
       </c>
       <c r="O28">
-        <v>4704</v>
+        <v>7.9815164881327453E-3</v>
       </c>
       <c r="P28">
-        <v>4692</v>
+        <v>4761</v>
       </c>
       <c r="Q28">
-        <v>24709</v>
+        <v>4749</v>
       </c>
       <c r="R28">
-        <v>1.85534724493821</v>
+        <v>24667</v>
       </c>
       <c r="S28">
-        <v>2.272008594455947</v>
+        <v>1.2810083914146251</v>
       </c>
       <c r="T28">
-        <v>2.208065332644489</v>
+        <v>1.6632023296963201</v>
       </c>
       <c r="U28">
-        <v>1.811389108238546</v>
+        <v>1.3589645237051879</v>
       </c>
       <c r="V28">
-        <v>0.8595693074361037</v>
+        <v>1.5372847004377841</v>
       </c>
       <c r="W28">
-        <v>0.2837746895911394</v>
+        <v>1.036686368059998</v>
       </c>
       <c r="X28">
-        <v>-3.789354889843404</v>
+        <v>6.7656486368731852E-2</v>
       </c>
       <c r="Y28">
-        <v>-3.986621665258163</v>
+        <v>-3.1522951236260881</v>
       </c>
       <c r="Z28">
-        <v>-3.461734102440848</v>
+        <v>-3.446960767395014</v>
       </c>
       <c r="AA28">
-        <v>-2.708490472795804</v>
+        <v>-2.7284156260154062</v>
       </c>
       <c r="AB28">
-        <v>-1.803365194929526</v>
+        <v>-2.7359498215254261</v>
       </c>
       <c r="AC28">
-        <v>-1.409001292615145</v>
-      </c>
-      <c r="BQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR28">
-        <v>1</v>
-      </c>
-      <c r="BS28">
+        <v>-2.2369094455956908</v>
+      </c>
+      <c r="AD28">
+        <v>-1.2895345780708121</v>
+      </c>
+      <c r="BO28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>1</v>
+      </c>
+      <c r="BQ28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:77">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
         <v>219</v>
@@ -4192,96 +4335,99 @@
         <v>220</v>
       </c>
       <c r="G29">
-        <v>686</v>
+        <v>610</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>-0.01073109775061945</v>
-      </c>
-      <c r="J29">
-        <v>0.5495626822157434</v>
+        <v>4.5179622168709292E-2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
       </c>
       <c r="K29">
-        <v>0.6673739265304506</v>
+        <v>0.37213114754098359</v>
       </c>
       <c r="L29">
-        <v>6.325201111682617</v>
+        <v>-1.2007225799440571</v>
       </c>
       <c r="M29">
-        <v>24.30040133624122</v>
+        <v>6.0930509076824482</v>
       </c>
       <c r="N29">
-        <v>0.03125678315606686</v>
+        <v>2.024917905408999E-4</v>
       </c>
       <c r="O29">
-        <v>4607</v>
+        <v>3.1067086897793791E-2</v>
       </c>
       <c r="P29">
-        <v>4595</v>
+        <v>4442</v>
       </c>
       <c r="Q29">
-        <v>24795</v>
+        <v>4430</v>
       </c>
       <c r="R29">
-        <v>2.477684772505972</v>
+        <v>24977</v>
       </c>
       <c r="S29">
-        <v>2.550958366518416</v>
+        <v>0.47866589003137128</v>
       </c>
       <c r="T29">
-        <v>2.412398612619654</v>
+        <v>0.26221583999736259</v>
       </c>
       <c r="U29">
-        <v>2.403925586380571</v>
+        <v>-4.7532298596223779E-2</v>
       </c>
       <c r="V29">
-        <v>1.950109184754064</v>
+        <v>-0.50452361884535168</v>
       </c>
       <c r="W29">
-        <v>1.268995696251828</v>
+        <v>-0.7099839978547926</v>
       </c>
       <c r="X29">
-        <v>-2.203104946055134</v>
+        <v>-1.0603920959508479</v>
       </c>
       <c r="Y29">
-        <v>-2.074392798965914</v>
+        <v>-3.8842489896125869</v>
       </c>
       <c r="Z29">
-        <v>-1.571122298209408</v>
+        <v>-3.197332803450013</v>
       </c>
       <c r="AA29">
-        <v>-1.358859183112627</v>
+        <v>-2.4797107186048382</v>
       </c>
       <c r="AB29">
-        <v>-1.077111520013502</v>
+        <v>-1.9164288727943879</v>
       </c>
       <c r="AC29">
-        <v>-0.5247988543722794</v>
-      </c>
-      <c r="BQ29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR29">
-        <v>1</v>
-      </c>
-      <c r="BS29">
+        <v>-1.7784527033008799</v>
+      </c>
+      <c r="AD29">
+        <v>-1.4493956697811461</v>
+      </c>
+      <c r="CD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="CE29">
+        <v>1</v>
+      </c>
+      <c r="CF29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:77">
+    <row r="30" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
@@ -4290,96 +4436,99 @@
         <v>220</v>
       </c>
       <c r="G30">
-        <v>1817</v>
+        <v>2018</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0.02620297265794033</v>
-      </c>
-      <c r="J30">
-        <v>0.4545954870665933</v>
+        <v>6.3970809799466108E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
       </c>
       <c r="K30">
-        <v>-0.1998553192763897</v>
+        <v>0.4722497522299306</v>
       </c>
       <c r="L30">
-        <v>15.86799904822442</v>
+        <v>-0.29312491130899759</v>
       </c>
       <c r="M30">
-        <v>8.376965856775041e-07</v>
+        <v>9.7206072266065249</v>
       </c>
       <c r="N30">
-        <v>0.1070187630298819</v>
+        <v>2.2408997821004381E-6</v>
       </c>
       <c r="O30">
-        <v>4317</v>
+        <v>3.3447880870561282E-2</v>
       </c>
       <c r="P30">
-        <v>4305</v>
+        <v>4365</v>
       </c>
       <c r="Q30">
-        <v>25117</v>
+        <v>4353</v>
       </c>
       <c r="R30">
-        <v>2.007775433170929</v>
+        <v>25071</v>
       </c>
       <c r="S30">
-        <v>2.179469225560112</v>
+        <v>1.565600769790517</v>
       </c>
       <c r="T30">
-        <v>2.157412270801386</v>
+        <v>1.9175954541423199</v>
       </c>
       <c r="U30">
-        <v>1.841648801868224</v>
+        <v>2.032519127493746</v>
       </c>
       <c r="V30">
-        <v>1.234294011257725</v>
+        <v>1.678171347863683</v>
       </c>
       <c r="W30">
-        <v>0.6253330135272858</v>
+        <v>0.93403765646734438</v>
       </c>
       <c r="X30">
-        <v>-3.442622722724684</v>
+        <v>0.31746398812571652</v>
       </c>
       <c r="Y30">
-        <v>-3.486309632950207</v>
+        <v>-3.1848905188451999</v>
       </c>
       <c r="Z30">
-        <v>-3.039834668697146</v>
+        <v>-3.3452127962819769</v>
       </c>
       <c r="AA30">
-        <v>-2.511882410859705</v>
+        <v>-3.048284384962566</v>
       </c>
       <c r="AB30">
-        <v>-1.937107726445848</v>
+        <v>-2.4980542282074532</v>
       </c>
       <c r="AC30">
-        <v>-1.57038373284072</v>
-      </c>
-      <c r="BT30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU30">
-        <v>1</v>
-      </c>
-      <c r="BV30">
+        <v>-1.8991341360462319</v>
+      </c>
+      <c r="AD30">
+        <v>-1.354249448145346</v>
+      </c>
+      <c r="CA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB30">
+        <v>1</v>
+      </c>
+      <c r="CC30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:77">
+    <row r="31" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
         <v>219</v>
@@ -4388,96 +4537,99 @@
         <v>220</v>
       </c>
       <c r="G31">
-        <v>708</v>
+        <v>1708</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0.08876577197523694</v>
-      </c>
-      <c r="J31">
-        <v>0.5268361581920904</v>
+        <v>2.5654121098797791E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
       </c>
       <c r="K31">
-        <v>0.7702620701363292</v>
+        <v>0.47365339578454341</v>
       </c>
       <c r="L31">
-        <v>6.842054351183303</v>
+        <v>-0.50546192149161739</v>
       </c>
       <c r="M31">
-        <v>46.86065869220499</v>
+        <v>7.7436472349083516</v>
       </c>
       <c r="N31">
-        <v>0.03593611357586513</v>
+        <v>1.0124027699536681E-6</v>
       </c>
       <c r="O31">
-        <v>4508</v>
+        <v>0.12122557726465361</v>
       </c>
       <c r="P31">
-        <v>4496</v>
+        <v>4504</v>
       </c>
       <c r="Q31">
-        <v>24905</v>
+        <v>4492</v>
       </c>
       <c r="R31">
-        <v>2.680677894232495</v>
+        <v>24932</v>
       </c>
       <c r="S31">
-        <v>2.70734091666569</v>
+        <v>1.050822386222493</v>
       </c>
       <c r="T31">
-        <v>2.647306490381899</v>
+        <v>1.4675361943457841</v>
       </c>
       <c r="U31">
-        <v>2.569040303584625</v>
+        <v>1.530366225108607</v>
       </c>
       <c r="V31">
-        <v>2.295825141624575</v>
+        <v>1.340661518362084</v>
       </c>
       <c r="W31">
-        <v>1.57854111180468</v>
+        <v>0.62344638366334593</v>
       </c>
       <c r="X31">
-        <v>-2.257619978615963</v>
+        <v>0.14055867950107331</v>
       </c>
       <c r="Y31">
-        <v>-2.15744938991046</v>
+        <v>-2.8957169102916192</v>
       </c>
       <c r="Z31">
-        <v>-1.653218628985822</v>
+        <v>-3.2746253594744008</v>
       </c>
       <c r="AA31">
-        <v>-1.174993745676685</v>
+        <v>-2.923637282191017</v>
       </c>
       <c r="AB31">
-        <v>-0.9163074649241706</v>
+        <v>-2.6272056176380909</v>
       </c>
       <c r="AC31">
-        <v>-0.6352511610014042</v>
-      </c>
-      <c r="BT31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU31">
-        <v>1</v>
-      </c>
-      <c r="BV31">
+        <v>-1.9804961652394799</v>
+      </c>
+      <c r="AD31">
+        <v>-1.602112825850041</v>
+      </c>
+      <c r="BX31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY31">
+        <v>1</v>
+      </c>
+      <c r="BZ31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:77">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
         <v>219</v>
@@ -4486,96 +4638,99 @@
         <v>220</v>
       </c>
       <c r="G32">
-        <v>1708</v>
+        <v>1817</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0.02565412109879779</v>
-      </c>
-      <c r="J32">
-        <v>0.4736533957845434</v>
+        <v>2.6202972657940329E-2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
       </c>
       <c r="K32">
-        <v>-0.5054619214916174</v>
+        <v>0.45459548706659331</v>
       </c>
       <c r="L32">
-        <v>7.743647234908352</v>
+        <v>-0.19985531927638969</v>
       </c>
       <c r="M32">
-        <v>1.012402769953668e-06</v>
+        <v>15.867999048224419</v>
       </c>
       <c r="N32">
-        <v>0.1212255772646536</v>
+        <v>8.3769658567750411E-7</v>
       </c>
       <c r="O32">
-        <v>4504</v>
+        <v>0.10701876302988191</v>
       </c>
       <c r="P32">
-        <v>4492</v>
+        <v>4317</v>
       </c>
       <c r="Q32">
-        <v>24932</v>
+        <v>4305</v>
       </c>
       <c r="R32">
-        <v>1.050822386222493</v>
+        <v>25117</v>
       </c>
       <c r="S32">
-        <v>1.467536194345784</v>
+        <v>2.007775433170929</v>
       </c>
       <c r="T32">
-        <v>1.530366225108607</v>
+        <v>2.179469225560112</v>
       </c>
       <c r="U32">
-        <v>1.340661518362084</v>
+        <v>2.1574122708013861</v>
       </c>
       <c r="V32">
-        <v>0.6234463836633459</v>
+        <v>1.841648801868224</v>
       </c>
       <c r="W32">
-        <v>0.1405586795010733</v>
+        <v>1.234294011257725</v>
       </c>
       <c r="X32">
-        <v>-2.895716910291619</v>
+        <v>0.62533301352728576</v>
       </c>
       <c r="Y32">
-        <v>-3.274625359474401</v>
+        <v>-3.4426227227246842</v>
       </c>
       <c r="Z32">
-        <v>-2.923637282191017</v>
+        <v>-3.4863096329502068</v>
       </c>
       <c r="AA32">
-        <v>-2.627205617638091</v>
+        <v>-3.039834668697146</v>
       </c>
       <c r="AB32">
-        <v>-1.98049616523948</v>
+        <v>-2.5118824108597049</v>
       </c>
       <c r="AC32">
-        <v>-1.602112825850041</v>
-      </c>
-      <c r="BW32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX32">
-        <v>1</v>
-      </c>
-      <c r="BY32">
+        <v>-1.9371077264458481</v>
+      </c>
+      <c r="AD32">
+        <v>-1.57038373284072</v>
+      </c>
+      <c r="BU32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV32">
+        <v>1</v>
+      </c>
+      <c r="BW32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:92">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
         <v>219</v>
@@ -4584,96 +4739,99 @@
         <v>220</v>
       </c>
       <c r="G33">
-        <v>1666</v>
+        <v>1285</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0.01516797267389943</v>
-      </c>
-      <c r="J33">
-        <v>0.5372148859543817</v>
+        <v>2.932418129022334E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
       </c>
       <c r="K33">
-        <v>0.4333396791012529</v>
+        <v>0.43735408560311279</v>
       </c>
       <c r="L33">
-        <v>6.86895222194317</v>
+        <v>-0.5647988694547782</v>
       </c>
       <c r="M33">
-        <v>28.32235698812168</v>
+        <v>10.54606333250574</v>
       </c>
       <c r="N33">
-        <v>0.02696289905090596</v>
+        <v>5.4016273823493218E-7</v>
       </c>
       <c r="O33">
-        <v>4636</v>
+        <v>1.8185662930852189E-2</v>
       </c>
       <c r="P33">
-        <v>4624</v>
+        <v>4729</v>
       </c>
       <c r="Q33">
-        <v>24800</v>
+        <v>4717</v>
       </c>
       <c r="R33">
-        <v>2.301514445263284</v>
+        <v>24702</v>
       </c>
       <c r="S33">
-        <v>2.597476912939638</v>
+        <v>1.8655415966022439</v>
       </c>
       <c r="T33">
-        <v>2.627240309782531</v>
+        <v>2.352535465999487</v>
       </c>
       <c r="U33">
-        <v>2.290283274619795</v>
+        <v>2.1904519193256151</v>
       </c>
       <c r="V33">
-        <v>1.533866583701304</v>
+        <v>2.0721236170473389</v>
       </c>
       <c r="W33">
-        <v>1.088867311979912</v>
+        <v>1.1163153719741521</v>
       </c>
       <c r="X33">
-        <v>-2.549082376725845</v>
+        <v>6.000106682261392E-2</v>
       </c>
       <c r="Y33">
-        <v>-2.730940352705568</v>
+        <v>-4.3801118233170513</v>
       </c>
       <c r="Z33">
-        <v>-2.374905070107301</v>
+        <v>-4.640238485988772</v>
       </c>
       <c r="AA33">
-        <v>-1.830426943745033</v>
+        <v>-4.0310095294203538</v>
       </c>
       <c r="AB33">
-        <v>-1.097022602210101</v>
+        <v>-3.603048952820584</v>
       </c>
       <c r="AC33">
-        <v>-0.8037977678433865</v>
-      </c>
-      <c r="BW33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX33">
-        <v>1</v>
-      </c>
-      <c r="BY33">
+        <v>-2.7354141067017501</v>
+      </c>
+      <c r="AD33">
+        <v>-1.80661765643169</v>
+      </c>
+      <c r="AW33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:92">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
         <v>219</v>
@@ -4682,96 +4840,99 @@
         <v>220</v>
       </c>
       <c r="G34">
-        <v>2018</v>
+        <v>1469</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0.06397080979946611</v>
-      </c>
-      <c r="J34">
-        <v>0.4722497522299306</v>
+        <v>-4.9405512987361249E-3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>258</v>
       </c>
       <c r="K34">
-        <v>-0.2931249113089976</v>
+        <v>0.46358066712049012</v>
       </c>
       <c r="L34">
-        <v>9.720607226606525</v>
+        <v>-0.7391006192386127</v>
       </c>
       <c r="M34">
-        <v>2.240899782100438e-06</v>
+        <v>7.3054501129294476</v>
       </c>
       <c r="N34">
-        <v>0.03344788087056128</v>
+        <v>3.529016146277102E-7</v>
       </c>
       <c r="O34">
-        <v>4365</v>
+        <v>0.36007210455159983</v>
       </c>
       <c r="P34">
-        <v>4353</v>
+        <v>4438</v>
       </c>
       <c r="Q34">
-        <v>25071</v>
+        <v>4426</v>
       </c>
       <c r="R34">
-        <v>1.565600769790517</v>
+        <v>24998</v>
       </c>
       <c r="S34">
-        <v>1.91759545414232</v>
+        <v>0.69687015222739523</v>
       </c>
       <c r="T34">
-        <v>2.032519127493746</v>
+        <v>0.9795870953554574</v>
       </c>
       <c r="U34">
-        <v>1.678171347863683</v>
+        <v>0.72514407848595386</v>
       </c>
       <c r="V34">
-        <v>0.9340376564673444</v>
+        <v>0.62616511160469912</v>
       </c>
       <c r="W34">
-        <v>0.3174639881257165</v>
+        <v>-0.2786294006961399</v>
       </c>
       <c r="X34">
-        <v>-3.1848905188452</v>
+        <v>-0.52555325853525348</v>
       </c>
       <c r="Y34">
-        <v>-3.345212796281977</v>
+        <v>-2.7525528877975081</v>
       </c>
       <c r="Z34">
-        <v>-3.048284384962566</v>
+        <v>-2.980579231123675</v>
       </c>
       <c r="AA34">
-        <v>-2.498054228207453</v>
+        <v>-2.310312985359777</v>
       </c>
       <c r="AB34">
-        <v>-1.899134136046232</v>
+        <v>-2.137700375045088</v>
       </c>
       <c r="AC34">
-        <v>-1.354249448145346</v>
-      </c>
-      <c r="BZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA34">
-        <v>1</v>
-      </c>
-      <c r="CB34">
+        <v>-1.2960452647977421</v>
+      </c>
+      <c r="AD34">
+        <v>-1.0580020858407739</v>
+      </c>
+      <c r="AT34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:92">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
         <v>219</v>
@@ -4780,96 +4941,99 @@
         <v>220</v>
       </c>
       <c r="G35">
-        <v>1894</v>
+        <v>1327</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>-0.0213064791052125</v>
-      </c>
-      <c r="J35">
-        <v>0.5026399155227033</v>
+        <v>5.4156343181377652E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
       </c>
       <c r="K35">
-        <v>-0.09960473102066918</v>
+        <v>0.44611906556141673</v>
       </c>
       <c r="L35">
-        <v>7.050165495164833</v>
+        <v>-0.78716218236645874</v>
       </c>
       <c r="M35">
-        <v>0.001124827055890328</v>
+        <v>8.1845987938430245</v>
       </c>
       <c r="N35">
-        <v>0.0354408225771166</v>
+        <v>2.967896567794733E-7</v>
       </c>
       <c r="O35">
-        <v>4571</v>
+        <v>7.661909989023051E-2</v>
       </c>
       <c r="P35">
-        <v>4559</v>
+        <v>4555</v>
       </c>
       <c r="Q35">
-        <v>24865</v>
+        <v>4543</v>
       </c>
       <c r="R35">
-        <v>1.601180161347183</v>
+        <v>24870</v>
       </c>
       <c r="S35">
-        <v>2.067182487538744</v>
+        <v>1.495647721347271</v>
       </c>
       <c r="T35">
-        <v>2.119138527927092</v>
+        <v>1.9203681593633379</v>
       </c>
       <c r="U35">
-        <v>1.99964240189769</v>
+        <v>1.7001073106403031</v>
       </c>
       <c r="V35">
-        <v>1.20222861057133</v>
+        <v>1.548718172558627</v>
       </c>
       <c r="W35">
-        <v>0.4968386258005799</v>
+        <v>0.88915801454176691</v>
       </c>
       <c r="X35">
-        <v>-2.675460052901578</v>
+        <v>-6.7653027786355902E-2</v>
       </c>
       <c r="Y35">
-        <v>-3.055537318205868</v>
+        <v>-4.3290185750756809</v>
       </c>
       <c r="Z35">
-        <v>-2.69339430355322</v>
+        <v>-4.5404541617444103</v>
       </c>
       <c r="AA35">
-        <v>-2.349013088219702</v>
+        <v>-3.8451970052802</v>
       </c>
       <c r="AB35">
-        <v>-1.689449598002557</v>
+        <v>-3.4729054568221489</v>
       </c>
       <c r="AC35">
-        <v>-1.075109578564431</v>
-      </c>
-      <c r="BZ35" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA35">
-        <v>1</v>
-      </c>
-      <c r="CB35">
+        <v>-2.9639721006079172</v>
+      </c>
+      <c r="AD35">
+        <v>-2.088095310676926</v>
+      </c>
+      <c r="BF35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>1</v>
+      </c>
+      <c r="BH35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:92">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
         <v>219</v>
@@ -4878,96 +5042,99 @@
         <v>220</v>
       </c>
       <c r="G36">
-        <v>647</v>
+        <v>1166</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0.0859500361590535</v>
-      </c>
-      <c r="J36">
-        <v>0.6831530139103554</v>
+        <v>6.0177420826551073E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
       </c>
       <c r="K36">
-        <v>2.506185058231424</v>
+        <v>0.42967409948542018</v>
       </c>
       <c r="L36">
-        <v>6.783016818523223</v>
+        <v>-0.8058481837564474</v>
       </c>
       <c r="M36">
-        <v>2209670.423116098</v>
+        <v>10.49122804965449</v>
       </c>
       <c r="N36">
-        <v>0.03012457531143828</v>
+        <v>1.561981082259742E-7</v>
       </c>
       <c r="O36">
-        <v>4415</v>
+        <v>0.1158549667453336</v>
       </c>
       <c r="P36">
-        <v>4403</v>
+        <v>4661</v>
       </c>
       <c r="Q36">
-        <v>25000</v>
+        <v>4649</v>
       </c>
       <c r="R36">
-        <v>3.661085328763396</v>
+        <v>24762</v>
       </c>
       <c r="S36">
-        <v>3.744696921276824</v>
+        <v>1.0703682114595501</v>
       </c>
       <c r="T36">
-        <v>3.739731692659128</v>
+        <v>1.3484163223250929</v>
       </c>
       <c r="U36">
-        <v>3.609138153623963</v>
+        <v>1.868574082938518</v>
       </c>
       <c r="V36">
-        <v>3.284355168355418</v>
+        <v>1.519797789331143</v>
       </c>
       <c r="W36">
-        <v>2.906121085166401</v>
+        <v>0.63906683073862347</v>
       </c>
       <c r="X36">
-        <v>0.5753712468919616</v>
+        <v>-0.25651570868417911</v>
       </c>
       <c r="Y36">
-        <v>0.6648892668571698</v>
+        <v>-3.766416013990328</v>
       </c>
       <c r="Z36">
-        <v>0.9618902772477322</v>
+        <v>-3.9119587441272889</v>
       </c>
       <c r="AA36">
-        <v>1.257816237759912</v>
+        <v>-3.83168431582421</v>
       </c>
       <c r="AB36">
-        <v>1.465120949782823</v>
+        <v>-3.2527308256057861</v>
       </c>
       <c r="AC36">
-        <v>1.721166490873071</v>
-      </c>
-      <c r="CC36" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD36">
-        <v>1</v>
-      </c>
-      <c r="CE36">
+        <v>-2.6152141415043402</v>
+      </c>
+      <c r="AD36">
+        <v>-1.7902781704208079</v>
+      </c>
+      <c r="BF36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>1</v>
+      </c>
+      <c r="BH36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:92">
+    <row r="37" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
         <v>219</v>
@@ -4976,96 +5143,99 @@
         <v>220</v>
       </c>
       <c r="G37">
-        <v>610</v>
+        <v>879</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0.04517962216870929</v>
-      </c>
-      <c r="J37">
-        <v>0.3721311475409836</v>
+        <v>0.1071335639196291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>286</v>
       </c>
       <c r="K37">
-        <v>-1.200722579944057</v>
+        <v>0.32878270762229811</v>
       </c>
       <c r="L37">
-        <v>6.093050907682448</v>
+        <v>-1.805537090619237</v>
       </c>
       <c r="M37">
-        <v>0.0002024917905408999</v>
+        <v>5.8919027098400782</v>
       </c>
       <c r="N37">
-        <v>0.03106708689779379</v>
+        <v>2.0955921892223969E-8</v>
       </c>
       <c r="O37">
-        <v>4442</v>
+        <v>4.0191179665435582E-2</v>
       </c>
       <c r="P37">
-        <v>4430</v>
+        <v>4603</v>
       </c>
       <c r="Q37">
-        <v>24977</v>
+        <v>4591</v>
       </c>
       <c r="R37">
-        <v>0.4786658900313713</v>
+        <v>24804</v>
       </c>
       <c r="S37">
-        <v>0.2622158399973626</v>
+        <v>-0.11609848140761619</v>
       </c>
       <c r="T37">
-        <v>-0.04753229859622378</v>
+        <v>8.9368586333889707E-2</v>
       </c>
       <c r="U37">
-        <v>-0.5045236188453517</v>
+        <v>-0.1359469692192237</v>
       </c>
       <c r="V37">
-        <v>-0.7099839978547926</v>
+        <v>-0.50215360000168163</v>
       </c>
       <c r="W37">
-        <v>-1.060392095950848</v>
+        <v>-1.0577228490723649</v>
       </c>
       <c r="X37">
-        <v>-3.884248989612587</v>
+        <v>-1.6322588148356301</v>
       </c>
       <c r="Y37">
-        <v>-3.197332803450013</v>
+        <v>-4.3493274536014512</v>
       </c>
       <c r="Z37">
-        <v>-2.479710718604838</v>
+        <v>-4.3545624985454827</v>
       </c>
       <c r="AA37">
-        <v>-1.916428872794388</v>
+        <v>-3.769205450532505</v>
       </c>
       <c r="AB37">
-        <v>-1.77845270330088</v>
+        <v>-3.1657287658344408</v>
       </c>
       <c r="AC37">
-        <v>-1.449395669781146</v>
-      </c>
-      <c r="CC37" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD37">
-        <v>1</v>
-      </c>
-      <c r="CE37">
+        <v>-2.758720110002737</v>
+      </c>
+      <c r="AD37">
+        <v>-2.1175535487648132</v>
+      </c>
+      <c r="CJ37" t="b">
+        <v>1</v>
+      </c>
+      <c r="CK37">
+        <v>1</v>
+      </c>
+      <c r="CL37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:92">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
         <v>219</v>
@@ -5074,96 +5244,99 @@
         <v>220</v>
       </c>
       <c r="G38">
-        <v>834</v>
+        <v>1771</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>-0.004408720353567439</v>
-      </c>
-      <c r="J38">
-        <v>0.579136690647482</v>
+        <v>9.0034977733662397E-2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
       </c>
       <c r="K38">
-        <v>0.996627786378415</v>
+        <v>0.41840767927724448</v>
       </c>
       <c r="L38">
-        <v>6.247429614857968</v>
+        <v>-0.95789807168216612</v>
       </c>
       <c r="M38">
-        <v>789.8271917389695</v>
+        <v>8.0218511836608304</v>
       </c>
       <c r="N38">
-        <v>0.02704456945045435</v>
+        <v>1.204545663699048E-10</v>
       </c>
       <c r="O38">
-        <v>4622</v>
+        <v>9.3085106382978719E-2</v>
       </c>
       <c r="P38">
-        <v>4610</v>
+        <v>4512</v>
       </c>
       <c r="Q38">
-        <v>24794</v>
+        <v>4500</v>
       </c>
       <c r="R38">
-        <v>2.445630564352666</v>
+        <v>24924</v>
       </c>
       <c r="S38">
-        <v>2.851458238399273</v>
+        <v>1.234786988681813</v>
       </c>
       <c r="T38">
-        <v>2.823352197328784</v>
+        <v>1.6317844756948889</v>
       </c>
       <c r="U38">
-        <v>2.880940566891178</v>
+        <v>1.46836276426177</v>
       </c>
       <c r="V38">
-        <v>2.16966590049108</v>
+        <v>1.137351502808897</v>
       </c>
       <c r="W38">
-        <v>1.838113740778357</v>
+        <v>0.34585198965962738</v>
       </c>
       <c r="X38">
-        <v>-1.156357541122872</v>
+        <v>-0.31805637534732462</v>
       </c>
       <c r="Y38">
-        <v>-1.379540775685882</v>
+        <v>-4.3259835529503654</v>
       </c>
       <c r="Z38">
-        <v>-0.9885034767825828</v>
+        <v>-4.5714595630135264</v>
       </c>
       <c r="AA38">
-        <v>-0.7590685687151972</v>
+        <v>-3.9123215227052932</v>
       </c>
       <c r="AB38">
-        <v>-0.2309813108147323</v>
+        <v>-3.4508963798692101</v>
       </c>
       <c r="AC38">
-        <v>-0.1768633227862424</v>
-      </c>
-      <c r="CF38" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG38">
-        <v>1</v>
-      </c>
-      <c r="CH38">
+        <v>-2.821569709656885</v>
+      </c>
+      <c r="AD38">
+        <v>-2.155612774591213</v>
+      </c>
+      <c r="BI38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ38">
+        <v>1</v>
+      </c>
+      <c r="BK38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:92">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="E39" t="s">
         <v>219</v>
@@ -5172,96 +5345,99 @@
         <v>220</v>
       </c>
       <c r="G39">
-        <v>911</v>
+        <v>1907</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0.04316546094157406</v>
-      </c>
-      <c r="J39">
-        <v>0.4500548847420417</v>
+        <v>4.3931636180148843E-2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>257</v>
       </c>
       <c r="K39">
-        <v>-0.4687133919623994</v>
+        <v>0.43314105925537488</v>
       </c>
       <c r="L39">
-        <v>5.859777683405651</v>
+        <v>-0.79469677674932859</v>
       </c>
       <c r="M39">
-        <v>0.002684318176776222</v>
+        <v>9.5967531558503936</v>
       </c>
       <c r="N39">
-        <v>0.03656667396540399</v>
+        <v>3.9181516844107672E-11</v>
       </c>
       <c r="O39">
-        <v>4567</v>
+        <v>4.4167610419026053E-2</v>
       </c>
       <c r="P39">
-        <v>4555</v>
+        <v>4415</v>
       </c>
       <c r="Q39">
-        <v>24862</v>
+        <v>4403</v>
       </c>
       <c r="R39">
-        <v>1.393418791111697</v>
+        <v>25021</v>
       </c>
       <c r="S39">
-        <v>1.639909977122567</v>
+        <v>1.033551675774613</v>
       </c>
       <c r="T39">
-        <v>1.335657710920355</v>
+        <v>1.5009601714735841</v>
       </c>
       <c r="U39">
-        <v>1.127644098860372</v>
+        <v>1.540782913990302</v>
       </c>
       <c r="V39">
-        <v>0.6755888614394335</v>
+        <v>1.30676677053792</v>
       </c>
       <c r="W39">
-        <v>0.0105745099675531</v>
+        <v>0.52458301018784947</v>
       </c>
       <c r="X39">
-        <v>-3.441210842241384</v>
+        <v>-0.32101689153403601</v>
       </c>
       <c r="Y39">
-        <v>-3.403319893781299</v>
+        <v>-3.6536778564617869</v>
       </c>
       <c r="Z39">
-        <v>-2.605586973453337</v>
+        <v>-4.1192957525137306</v>
       </c>
       <c r="AA39">
-        <v>-2.229451738465721</v>
+        <v>-3.7428250480772971</v>
       </c>
       <c r="AB39">
-        <v>-1.915172075398016</v>
+        <v>-3.310798601124227</v>
       </c>
       <c r="AC39">
-        <v>-1.288024519470792</v>
-      </c>
-      <c r="CF39" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG39">
-        <v>1</v>
-      </c>
-      <c r="CH39">
+        <v>-2.6023790958686841</v>
+      </c>
+      <c r="AD39">
+        <v>-1.6908975007527891</v>
+      </c>
+      <c r="AT39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
+      <c r="AV39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:92">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
         <v>219</v>
@@ -5270,96 +5446,99 @@
         <v>220</v>
       </c>
       <c r="G40">
-        <v>962</v>
+        <v>1844</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>-0.001666212891979683</v>
-      </c>
-      <c r="J40">
-        <v>0.7297297297297297</v>
+        <v>2.137535618395766E-2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
       </c>
       <c r="K40">
-        <v>3.429332868581097</v>
+        <v>0.42841648590021691</v>
       </c>
       <c r="L40">
-        <v>19.36840026981005</v>
+        <v>-1.0002413887905579</v>
       </c>
       <c r="M40">
-        <v>467980566673.015</v>
+        <v>8.1736308943121436</v>
       </c>
       <c r="N40">
-        <v>0.030034924330617</v>
+        <v>1.7223932782500091E-11</v>
       </c>
       <c r="O40">
-        <v>4295</v>
+        <v>9.2664930555555552E-2</v>
       </c>
       <c r="P40">
-        <v>4283</v>
+        <v>4608</v>
       </c>
       <c r="Q40">
-        <v>25115</v>
+        <v>4596</v>
       </c>
       <c r="R40">
-        <v>5.125112310936133</v>
+        <v>24828</v>
       </c>
       <c r="S40">
-        <v>5.237624908265007</v>
+        <v>0.96978694305569113</v>
       </c>
       <c r="T40">
-        <v>5.196387104388394</v>
+        <v>1.4527845761116029</v>
       </c>
       <c r="U40">
-        <v>4.848863806041037</v>
+        <v>1.299704684028143</v>
       </c>
       <c r="V40">
-        <v>4.4266604185623</v>
+        <v>0.95481310767705008</v>
       </c>
       <c r="W40">
-        <v>4.021113982646948</v>
+        <v>0.18140543777925289</v>
       </c>
       <c r="X40">
-        <v>0.7790709278069596</v>
+        <v>-0.40613241468090888</v>
       </c>
       <c r="Y40">
-        <v>0.781791853949575</v>
+        <v>-4.0515405499315138</v>
       </c>
       <c r="Z40">
-        <v>1.20164181143785</v>
+        <v>-4.410795095236451</v>
       </c>
       <c r="AA40">
-        <v>1.735597991176241</v>
+        <v>-3.7752362113297071</v>
       </c>
       <c r="AB40">
-        <v>2.037650137302784</v>
+        <v>-3.1939458592364298</v>
       </c>
       <c r="AC40">
-        <v>2.344530904360014</v>
-      </c>
-      <c r="CI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ40">
-        <v>1</v>
-      </c>
-      <c r="CK40">
+        <v>-2.5274024932259009</v>
+      </c>
+      <c r="AD40">
+        <v>-1.997777888669843</v>
+      </c>
+      <c r="CM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="CN40">
+        <v>1</v>
+      </c>
+      <c r="CO40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:92">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
         <v>219</v>
@@ -5368,85 +5547,88 @@
         <v>220</v>
       </c>
       <c r="G41">
-        <v>879</v>
+        <v>1350</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0.1071335639196291</v>
-      </c>
-      <c r="J41">
-        <v>0.3287827076222981</v>
+        <v>3.2272265694918811E-2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>272</v>
       </c>
       <c r="K41">
-        <v>-1.805537090619237</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>5.891902709840078</v>
+        <v>-1.6959463354932851</v>
       </c>
       <c r="M41">
-        <v>2.095592189222397e-08</v>
+        <v>9.227221152652815</v>
       </c>
       <c r="N41">
-        <v>0.04019117966543558</v>
+        <v>3.4759816415686539E-13</v>
       </c>
       <c r="O41">
-        <v>4603</v>
+        <v>0.41625944024877831</v>
       </c>
       <c r="P41">
-        <v>4591</v>
+        <v>4502</v>
       </c>
       <c r="Q41">
-        <v>24804</v>
+        <v>4490</v>
       </c>
       <c r="R41">
-        <v>-0.1160984814076162</v>
+        <v>24926</v>
       </c>
       <c r="S41">
-        <v>0.08936858633388971</v>
+        <v>-0.10249911989006109</v>
       </c>
       <c r="T41">
-        <v>-0.1359469692192237</v>
+        <v>0.31544000877225181</v>
       </c>
       <c r="U41">
-        <v>-0.5021536000016816</v>
+        <v>0.32104335281692009</v>
       </c>
       <c r="V41">
-        <v>-1.057722849072365</v>
+        <v>3.5579783880214863E-2</v>
       </c>
       <c r="W41">
-        <v>-1.63225881483563</v>
+        <v>-0.42821216078735758</v>
       </c>
       <c r="X41">
-        <v>-4.349327453601451</v>
+        <v>-0.86791109144736511</v>
       </c>
       <c r="Y41">
-        <v>-4.354562498545483</v>
+        <v>-4.1212351497805892</v>
       </c>
       <c r="Z41">
-        <v>-3.769205450532505</v>
+        <v>-4.4179038514194318</v>
       </c>
       <c r="AA41">
-        <v>-3.165728765834441</v>
+        <v>-3.953071151652459</v>
       </c>
       <c r="AB41">
-        <v>-2.758720110002737</v>
+        <v>-3.4894479838799231</v>
       </c>
       <c r="AC41">
-        <v>-2.117553548764813</v>
-      </c>
-      <c r="CI41" t="b">
-        <v>1</v>
-      </c>
-      <c r="CJ41">
-        <v>1</v>
-      </c>
-      <c r="CK41">
+        <v>-3.137626321773638</v>
+      </c>
+      <c r="AD41">
+        <v>-2.886632554269458</v>
+      </c>
+      <c r="BO41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP41">
+        <v>1</v>
+      </c>
+      <c r="BQ41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:92">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -5472,90 +5654,93 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0.01315923190139104</v>
-      </c>
-      <c r="J42">
+        <v>1.315923190139104E-2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42">
         <v>0.3948356807511737</v>
       </c>
-      <c r="K42">
-        <v>-1.335582200658119</v>
-      </c>
       <c r="L42">
-        <v>9.436547905091837</v>
+        <v>-1.3355822006581191</v>
       </c>
       <c r="M42">
-        <v>3.543300886184566e-17</v>
+        <v>9.4365479050918371</v>
       </c>
       <c r="N42">
-        <v>0.09771220868077828</v>
+        <v>3.5433008861845658E-17</v>
       </c>
       <c r="O42">
+        <v>9.7712208680778276E-2</v>
+      </c>
+      <c r="P42">
         <v>4677</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>4665</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>24759</v>
       </c>
-      <c r="R42">
-        <v>0.4668275517523987</v>
-      </c>
       <c r="S42">
-        <v>0.7660469201114591</v>
+        <v>0.46682755175239871</v>
       </c>
       <c r="T42">
-        <v>0.6695151135334151</v>
+        <v>0.76604692011145914</v>
       </c>
       <c r="U42">
-        <v>0.02389959126658849</v>
+        <v>0.66951511353341508</v>
       </c>
       <c r="V42">
-        <v>-0.6601937256743421</v>
+        <v>2.3899591266588489E-2</v>
       </c>
       <c r="W42">
-        <v>-0.9772596210337811</v>
+        <v>-0.66019372567434209</v>
       </c>
       <c r="X42">
-        <v>-4.081063285828448</v>
+        <v>-0.97725962103378106</v>
       </c>
       <c r="Y42">
-        <v>-4.23954614468436</v>
+        <v>-4.0810632858284484</v>
       </c>
       <c r="Z42">
-        <v>-3.683325596026258</v>
+        <v>-4.2395461446843603</v>
       </c>
       <c r="AA42">
-        <v>-2.838858681074506</v>
+        <v>-3.6833255960262581</v>
       </c>
       <c r="AB42">
-        <v>-2.195874000264013</v>
+        <v>-2.8388586810745058</v>
       </c>
       <c r="AC42">
-        <v>-1.942719629694638</v>
-      </c>
-      <c r="CL42" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM42">
-        <v>1</v>
+        <v>-2.1958740002640131</v>
+      </c>
+      <c r="AD42">
+        <v>-1.9427196296946381</v>
+      </c>
+      <c r="CM42" t="b">
+        <v>0</v>
       </c>
       <c r="CN42">
         <v>1</v>
       </c>
+      <c r="CO42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:92">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
         <v>219</v>
@@ -5564,98 +5749,167 @@
         <v>220</v>
       </c>
       <c r="G43">
-        <v>1844</v>
+        <v>1815</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0.02137535618395766</v>
-      </c>
-      <c r="J43">
-        <v>0.4284164859002169</v>
+        <v>3.4000591828683868E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>267</v>
       </c>
       <c r="K43">
-        <v>-1.000241388790558</v>
+        <v>0.40606060606060612</v>
       </c>
       <c r="L43">
-        <v>8.173630894312144</v>
+        <v>-1.4695217254092721</v>
       </c>
       <c r="M43">
-        <v>1.722393278250009e-11</v>
+        <v>11.116204146348821</v>
       </c>
       <c r="N43">
-        <v>0.09266493055555555</v>
+        <v>3.2405105915946618E-17</v>
       </c>
       <c r="O43">
-        <v>4608</v>
+        <v>0.14783910997004709</v>
       </c>
       <c r="P43">
-        <v>4596</v>
+        <v>4674</v>
       </c>
       <c r="Q43">
-        <v>24828</v>
+        <v>4662</v>
       </c>
       <c r="R43">
-        <v>0.9697869430556911</v>
+        <v>24762</v>
       </c>
       <c r="S43">
-        <v>1.452784576111603</v>
+        <v>0.5764425202952792</v>
       </c>
       <c r="T43">
-        <v>1.299704684028143</v>
+        <v>1.0456282817678919</v>
       </c>
       <c r="U43">
-        <v>0.9548131076770501</v>
+        <v>1.1204847319753839</v>
       </c>
       <c r="V43">
-        <v>0.1814054377792529</v>
+        <v>0.5444306996953906</v>
       </c>
       <c r="W43">
-        <v>-0.4061324146809089</v>
+        <v>-0.45572164601117598</v>
       </c>
       <c r="X43">
-        <v>-4.051540549931514</v>
+        <v>-1.026035326960407</v>
       </c>
       <c r="Y43">
-        <v>-4.410795095236451</v>
+        <v>-4.6637762780591796</v>
       </c>
       <c r="Z43">
-        <v>-3.775236211329707</v>
+        <v>-5.0337045881030953</v>
       </c>
       <c r="AA43">
-        <v>-3.19394585923643</v>
+        <v>-4.6203054129262924</v>
       </c>
       <c r="AB43">
-        <v>-2.527402493225901</v>
+        <v>-3.7643762464969219</v>
       </c>
       <c r="AC43">
-        <v>-1.997777888669843</v>
-      </c>
-      <c r="CL43" t="b">
-        <v>1</v>
-      </c>
-      <c r="CM43">
-        <v>1</v>
-      </c>
-      <c r="CN43">
+        <v>-2.8252210680006091</v>
+      </c>
+      <c r="AD43">
+        <v>-2.3033674021721091</v>
+      </c>
+      <c r="BI43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>1</v>
+      </c>
+      <c r="BK43">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:CO44">
+    <sortCondition descending="1" ref="N2:N44"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:AD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5723,7 +5977,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -5785,7 +6039,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -5847,7 +6101,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -5909,7 +6163,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -5971,7 +6225,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -6033,7 +6287,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -6095,7 +6349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -6157,7 +6411,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -6219,7 +6473,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -6281,7 +6535,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -6343,7 +6597,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -6405,7 +6659,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -6467,7 +6721,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>219</v>
       </c>
@@ -6529,7 +6783,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>219</v>
       </c>
@@ -6591,7 +6845,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -6653,7 +6907,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>219</v>
       </c>
@@ -6715,7 +6969,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -6777,7 +7031,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -6839,7 +7093,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -6901,7 +7155,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -6963,7 +7217,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -7025,7 +7279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -7087,7 +7341,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -7149,7 +7403,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -7211,7 +7465,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>219</v>
       </c>
@@ -7273,7 +7527,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>219</v>
       </c>
@@ -7335,7 +7589,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>219</v>
       </c>
@@ -7397,7 +7651,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -7459,7 +7713,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>219</v>
       </c>
@@ -7521,7 +7775,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>219</v>
       </c>
@@ -7583,7 +7837,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -7645,7 +7899,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>219</v>
       </c>
@@ -7707,7 +7961,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>219</v>
       </c>
@@ -7769,7 +8023,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -7831,7 +8085,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -7893,7 +8147,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -7955,7 +8209,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>219</v>
       </c>
@@ -8017,7 +8271,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -8079,7 +8333,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>219</v>
       </c>
@@ -8141,7 +8395,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -8203,7 +8457,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>219</v>
       </c>
@@ -8265,7 +8519,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -8328,6 +8582,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>